--- a/code_generate_figures/data/metrics_Maxquant_TMT_all_ensemble_topk.xlsx
+++ b/code_generate_figures/data/metrics_Maxquant_TMT_all_ensemble_topk.xlsx
@@ -69,13 +69,13 @@
     <t xml:space="preserve">pauc001_C.E_HYms2faims815_TMT16</t>
   </si>
   <si>
+    <t xml:space="preserve">pauc001_A.C_HYsps2815_TMT16</t>
+  </si>
+  <si>
     <t xml:space="preserve">pauc001_B.C_HYsps2815_TMT16</t>
   </si>
   <si>
     <t xml:space="preserve">pauc001_B.E_HYsps2815_TMT16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pauc001_A.C_HYsps2815_TMT16</t>
   </si>
   <si>
     <t xml:space="preserve">pauc001_A.D_HYms2815_TMT16</t>
@@ -540,13 +540,13 @@
     <t xml:space="preserve">pauc005_C.E_HYms2faims815_TMT16</t>
   </si>
   <si>
+    <t xml:space="preserve">pauc005_A.C_HYsps2815_TMT16</t>
+  </si>
+  <si>
     <t xml:space="preserve">pauc005_B.C_HYsps2815_TMT16</t>
   </si>
   <si>
     <t xml:space="preserve">pauc005_B.E_HYsps2815_TMT16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pauc005_A.C_HYsps2815_TMT16</t>
   </si>
   <si>
     <t xml:space="preserve">pauc005_A.D_HYms2815_TMT16</t>
@@ -585,13 +585,13 @@
     <t xml:space="preserve">pauc01_C.E_HYms2faims815_TMT16</t>
   </si>
   <si>
+    <t xml:space="preserve">pauc01_A.C_HYsps2815_TMT16</t>
+  </si>
+  <si>
     <t xml:space="preserve">pauc01_B.C_HYsps2815_TMT16</t>
   </si>
   <si>
     <t xml:space="preserve">pauc01_B.E_HYsps2815_TMT16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pauc01_A.C_HYsps2815_TMT16</t>
   </si>
   <si>
     <t xml:space="preserve">pauc01_A.D_HYms2815_TMT16</t>
@@ -630,13 +630,13 @@
     <t xml:space="preserve">nMcc_C.E_HYms2faims815_TMT16</t>
   </si>
   <si>
+    <t xml:space="preserve">nMcc_A.C_HYsps2815_TMT16</t>
+  </si>
+  <si>
     <t xml:space="preserve">nMcc_B.C_HYsps2815_TMT16</t>
   </si>
   <si>
     <t xml:space="preserve">nMcc_B.E_HYsps2815_TMT16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nMcc_A.C_HYsps2815_TMT16</t>
   </si>
   <si>
     <t xml:space="preserve">nMcc_A.D_HYms2815_TMT16</t>
@@ -675,13 +675,13 @@
     <t xml:space="preserve">geomean_C.E_HYms2faims815_TMT16</t>
   </si>
   <si>
+    <t xml:space="preserve">geomean_A.C_HYsps2815_TMT16</t>
+  </si>
+  <si>
     <t xml:space="preserve">geomean_B.C_HYsps2815_TMT16</t>
   </si>
   <si>
     <t xml:space="preserve">geomean_B.E_HYsps2815_TMT16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">geomean_A.C_HYsps2815_TMT16</t>
   </si>
   <si>
     <t xml:space="preserve">geomean_A.D_HYms2815_TMT16</t>
@@ -726,13 +726,13 @@
     <t xml:space="preserve">conditionC-conditionE</t>
   </si>
   <si>
+    <t xml:space="preserve">conditionA-conditionC</t>
+  </si>
+  <si>
     <t xml:space="preserve">conditionB-conditionC</t>
   </si>
   <si>
     <t xml:space="preserve">conditionB-conditionE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conditionA-conditionC</t>
   </si>
   <si>
     <t xml:space="preserve">conditionA-conditionD</t>
@@ -1224,7 +1224,7 @@
         <v>0.818244506666667</v>
       </c>
       <c r="X2" t="n">
-        <v>0.8176884</v>
+        <v>0.8171323</v>
       </c>
       <c r="Y2" t="n">
         <v>20</v>
@@ -1304,7 +1304,7 @@
         <v>0.818251173333333</v>
       </c>
       <c r="X3" t="n">
-        <v>0.81764975</v>
+        <v>0.8170483</v>
       </c>
       <c r="Y3" t="n">
         <v>16</v>
@@ -1384,7 +1384,7 @@
         <v>0.81825156</v>
       </c>
       <c r="X4" t="n">
-        <v>0.81767905</v>
+        <v>0.8171065</v>
       </c>
       <c r="Y4" t="n">
         <v>14</v>
@@ -1464,7 +1464,7 @@
         <v>0.818250946666667</v>
       </c>
       <c r="X5" t="n">
-        <v>0.8176884</v>
+        <v>0.8171259</v>
       </c>
       <c r="Y5" t="n">
         <v>17</v>
@@ -1544,13 +1544,13 @@
         <v>0.8182203</v>
       </c>
       <c r="X6" t="n">
-        <v>0.8176343</v>
+        <v>0.8170483</v>
       </c>
       <c r="Y6" t="n">
         <v>23</v>
       </c>
       <c r="Z6" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
@@ -1624,13 +1624,13 @@
         <v>0.818251833333333</v>
       </c>
       <c r="X7" t="n">
-        <v>0.8176565</v>
+        <v>0.8170612</v>
       </c>
       <c r="Y7" t="n">
         <v>13</v>
       </c>
       <c r="Z7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
@@ -1704,7 +1704,7 @@
         <v>0.818403686666667</v>
       </c>
       <c r="X8" t="n">
-        <v>0.818473</v>
+        <v>0.8185423</v>
       </c>
       <c r="Y8" t="n">
         <v>8</v>
@@ -1784,7 +1784,7 @@
         <v>0.818120253333333</v>
       </c>
       <c r="X9" t="n">
-        <v>0.8174905</v>
+        <v>0.8168607</v>
       </c>
       <c r="Y9" t="n">
         <v>27</v>
@@ -1864,13 +1864,13 @@
         <v>0.81824992</v>
       </c>
       <c r="X10" t="n">
-        <v>0.8176782</v>
+        <v>0.8171065</v>
       </c>
       <c r="Y10" t="n">
         <v>18</v>
       </c>
       <c r="Z10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
@@ -1944,13 +1944,13 @@
         <v>0.81824706</v>
       </c>
       <c r="X11" t="n">
-        <v>0.8183947</v>
+        <v>0.8185423</v>
       </c>
       <c r="Y11" t="n">
         <v>19</v>
       </c>
       <c r="Z11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -2024,13 +2024,13 @@
         <v>0.81790886</v>
       </c>
       <c r="X12" t="n">
-        <v>0.8171306</v>
+        <v>0.8163523</v>
       </c>
       <c r="Y12" t="n">
         <v>32</v>
       </c>
       <c r="Z12" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13">
@@ -2104,13 +2104,13 @@
         <v>0.8182368</v>
       </c>
       <c r="X13" t="n">
-        <v>0.81764255</v>
+        <v>0.8170483</v>
       </c>
       <c r="Y13" t="n">
         <v>21</v>
       </c>
       <c r="Z13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
@@ -2184,13 +2184,13 @@
         <v>0.818218666666667</v>
       </c>
       <c r="X14" t="n">
-        <v>0.81834815</v>
+        <v>0.8184776</v>
       </c>
       <c r="Y14" t="n">
         <v>24</v>
       </c>
       <c r="Z14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -2264,7 +2264,7 @@
         <v>0.817564273333333</v>
       </c>
       <c r="X15" t="n">
-        <v>0.81634</v>
+        <v>0.8151157</v>
       </c>
       <c r="Y15" t="n">
         <v>34</v>
@@ -2344,7 +2344,7 @@
         <v>0.818190873333333</v>
       </c>
       <c r="X16" t="n">
-        <v>0.81756785</v>
+        <v>0.8169448</v>
       </c>
       <c r="Y16" t="n">
         <v>25</v>
@@ -2424,13 +2424,13 @@
         <v>0.76752816</v>
       </c>
       <c r="X17" t="n">
-        <v>0.791099</v>
+        <v>0.7945161</v>
       </c>
       <c r="Y17" t="n">
         <v>52</v>
       </c>
       <c r="Z17" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18">
@@ -2504,7 +2504,7 @@
         <v>0.817564273333333</v>
       </c>
       <c r="X18" t="n">
-        <v>0.81634</v>
+        <v>0.8151157</v>
       </c>
       <c r="Y18" t="n">
         <v>35</v>
@@ -2584,7 +2584,7 @@
         <v>0.818234233333333</v>
       </c>
       <c r="X19" t="n">
-        <v>0.8176218</v>
+        <v>0.8170094</v>
       </c>
       <c r="Y19" t="n">
         <v>22</v>
@@ -2664,13 +2664,13 @@
         <v>0.76752816</v>
       </c>
       <c r="X20" t="n">
-        <v>0.791099</v>
+        <v>0.7945161</v>
       </c>
       <c r="Y20" t="n">
         <v>53</v>
       </c>
       <c r="Z20" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21">
@@ -2744,7 +2744,7 @@
         <v>0.817466153333333</v>
       </c>
       <c r="X21" t="n">
-        <v>0.81627155</v>
+        <v>0.8150769</v>
       </c>
       <c r="Y21" t="n">
         <v>36</v>
@@ -2824,13 +2824,13 @@
         <v>0.818168253333333</v>
       </c>
       <c r="X22" t="n">
-        <v>0.8175921</v>
+        <v>0.8170159</v>
       </c>
       <c r="Y22" t="n">
         <v>26</v>
       </c>
       <c r="Z22" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
@@ -2904,13 +2904,13 @@
         <v>0.767103813333333</v>
       </c>
       <c r="X23" t="n">
-        <v>0.79117725</v>
+        <v>0.7946064</v>
       </c>
       <c r="Y23" t="n">
         <v>54</v>
       </c>
       <c r="Z23" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24">
@@ -2984,7 +2984,7 @@
         <v>0.817466153333333</v>
       </c>
       <c r="X24" t="n">
-        <v>0.81627155</v>
+        <v>0.8150769</v>
       </c>
       <c r="Y24" t="n">
         <v>37</v>
@@ -3064,13 +3064,13 @@
         <v>0.818255993333333</v>
       </c>
       <c r="X25" t="n">
-        <v>0.81764245</v>
+        <v>0.8170289</v>
       </c>
       <c r="Y25" t="n">
         <v>12</v>
       </c>
       <c r="Z25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
@@ -3144,13 +3144,13 @@
         <v>0.7668109</v>
       </c>
       <c r="X26" t="n">
-        <v>0.7913111</v>
+        <v>0.7948621</v>
       </c>
       <c r="Y26" t="n">
         <v>55</v>
       </c>
       <c r="Z26" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27">
@@ -3224,7 +3224,7 @@
         <v>0.817466153333333</v>
       </c>
       <c r="X27" t="n">
-        <v>0.81627155</v>
+        <v>0.8150769</v>
       </c>
       <c r="Y27" t="n">
         <v>38</v>
@@ -3304,13 +3304,13 @@
         <v>0.818251206666667</v>
       </c>
       <c r="X28" t="n">
-        <v>0.8176271</v>
+        <v>0.817003</v>
       </c>
       <c r="Y28" t="n">
         <v>15</v>
       </c>
       <c r="Z28" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29">
@@ -3384,13 +3384,13 @@
         <v>0.76641662</v>
       </c>
       <c r="X29" t="n">
-        <v>0.79136225</v>
+        <v>0.7949343</v>
       </c>
       <c r="Y29" t="n">
         <v>56</v>
       </c>
       <c r="Z29" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30">
@@ -3464,7 +3464,7 @@
         <v>0.817466153333333</v>
       </c>
       <c r="X30" t="n">
-        <v>0.81627155</v>
+        <v>0.8150769</v>
       </c>
       <c r="Y30" t="n">
         <v>39</v>
@@ -3544,13 +3544,13 @@
         <v>0.818302673333333</v>
       </c>
       <c r="X31" t="n">
-        <v>0.8176787</v>
+        <v>0.8170547</v>
       </c>
       <c r="Y31" t="n">
         <v>9</v>
       </c>
       <c r="Z31" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
@@ -3624,13 +3624,13 @@
         <v>0.76637618</v>
       </c>
       <c r="X32" t="n">
-        <v>0.79136225</v>
+        <v>0.7949343</v>
       </c>
       <c r="Y32" t="n">
         <v>57</v>
       </c>
       <c r="Z32" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33">
@@ -3704,7 +3704,7 @@
         <v>0.817466153333333</v>
       </c>
       <c r="X33" t="n">
-        <v>0.81627155</v>
+        <v>0.8150769</v>
       </c>
       <c r="Y33" t="n">
         <v>40</v>
@@ -3784,13 +3784,13 @@
         <v>0.81828782</v>
       </c>
       <c r="X34" t="n">
-        <v>0.81767775</v>
+        <v>0.8170677</v>
       </c>
       <c r="Y34" t="n">
         <v>10</v>
       </c>
       <c r="Z34" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
@@ -3864,13 +3864,13 @@
         <v>0.766368133333333</v>
       </c>
       <c r="X35" t="n">
-        <v>0.79136225</v>
+        <v>0.7949343</v>
       </c>
       <c r="Y35" t="n">
         <v>58</v>
       </c>
       <c r="Z35" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36">
@@ -3944,7 +3944,7 @@
         <v>0.817466153333333</v>
       </c>
       <c r="X36" t="n">
-        <v>0.81627155</v>
+        <v>0.8150769</v>
       </c>
       <c r="Y36" t="n">
         <v>41</v>
@@ -4024,13 +4024,13 @@
         <v>0.81809978</v>
       </c>
       <c r="X37" t="n">
-        <v>0.8183469</v>
+        <v>0.818594</v>
       </c>
       <c r="Y37" t="n">
         <v>29</v>
       </c>
       <c r="Z37" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -4104,13 +4104,13 @@
         <v>0.766368133333333</v>
       </c>
       <c r="X38" t="n">
-        <v>0.79136225</v>
+        <v>0.7949343</v>
       </c>
       <c r="Y38" t="n">
         <v>59</v>
       </c>
       <c r="Z38" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39">
@@ -4184,7 +4184,7 @@
         <v>0.817100246666667</v>
       </c>
       <c r="X39" t="n">
-        <v>0.81523985</v>
+        <v>0.8133795</v>
       </c>
       <c r="Y39" t="n">
         <v>42</v>
@@ -4264,13 +4264,13 @@
         <v>0.8182591</v>
       </c>
       <c r="X40" t="n">
-        <v>0.8181226</v>
+        <v>0.8179861</v>
       </c>
       <c r="Y40" t="n">
         <v>11</v>
       </c>
       <c r="Z40" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41">
@@ -4344,13 +4344,13 @@
         <v>0.766368133333333</v>
       </c>
       <c r="X41" t="n">
-        <v>0.79136225</v>
+        <v>0.7949343</v>
       </c>
       <c r="Y41" t="n">
         <v>60</v>
       </c>
       <c r="Z41" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42">
@@ -4424,7 +4424,7 @@
         <v>0.817099533333333</v>
       </c>
       <c r="X42" t="n">
-        <v>0.8152395</v>
+        <v>0.8133795</v>
       </c>
       <c r="Y42" t="n">
         <v>43</v>
@@ -4504,13 +4504,13 @@
         <v>0.818106726666667</v>
       </c>
       <c r="X43" t="n">
-        <v>0.8183989</v>
+        <v>0.8186911</v>
       </c>
       <c r="Y43" t="n">
         <v>28</v>
       </c>
       <c r="Z43" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
@@ -4584,13 +4584,13 @@
         <v>0.766368133333333</v>
       </c>
       <c r="X44" t="n">
-        <v>0.79136225</v>
+        <v>0.7949343</v>
       </c>
       <c r="Y44" t="n">
         <v>61</v>
       </c>
       <c r="Z44" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45">
@@ -4664,7 +4664,7 @@
         <v>0.817078886666667</v>
       </c>
       <c r="X45" t="n">
-        <v>0.81522275</v>
+        <v>0.8133666</v>
       </c>
       <c r="Y45" t="n">
         <v>44</v>
@@ -4744,13 +4744,13 @@
         <v>0.818087373333333</v>
       </c>
       <c r="X46" t="n">
-        <v>0.8180529</v>
+        <v>0.8180184</v>
       </c>
       <c r="Y46" t="n">
         <v>30</v>
       </c>
       <c r="Z46" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47">
@@ -4824,13 +4824,13 @@
         <v>0.766368133333333</v>
       </c>
       <c r="X47" t="n">
-        <v>0.79136225</v>
+        <v>0.7949343</v>
       </c>
       <c r="Y47" t="n">
         <v>62</v>
       </c>
       <c r="Z47" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48">
@@ -4904,7 +4904,7 @@
         <v>0.81692404</v>
       </c>
       <c r="X48" t="n">
-        <v>0.8151453</v>
+        <v>0.8133666</v>
       </c>
       <c r="Y48" t="n">
         <v>45</v>
@@ -4984,13 +4984,13 @@
         <v>0.81800794</v>
       </c>
       <c r="X49" t="n">
-        <v>0.8179679</v>
+        <v>0.8179279</v>
       </c>
       <c r="Y49" t="n">
         <v>31</v>
       </c>
       <c r="Z49" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50">
@@ -5064,13 +5064,13 @@
         <v>0.766351526666667</v>
       </c>
       <c r="X50" t="n">
-        <v>0.79136225</v>
+        <v>0.7949343</v>
       </c>
       <c r="Y50" t="n">
         <v>63</v>
       </c>
       <c r="Z50" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51">
@@ -5144,7 +5144,7 @@
         <v>0.81692404</v>
       </c>
       <c r="X51" t="n">
-        <v>0.8151453</v>
+        <v>0.8133666</v>
       </c>
       <c r="Y51" t="n">
         <v>46</v>
@@ -5224,13 +5224,13 @@
         <v>0.818432193333333</v>
       </c>
       <c r="X52" t="n">
-        <v>0.8180248</v>
+        <v>0.8176174</v>
       </c>
       <c r="Y52" t="n">
         <v>7</v>
       </c>
       <c r="Z52" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53">
@@ -5304,13 +5304,13 @@
         <v>0.766351526666667</v>
       </c>
       <c r="X53" t="n">
-        <v>0.79136225</v>
+        <v>0.7949343</v>
       </c>
       <c r="Y53" t="n">
         <v>64</v>
       </c>
       <c r="Z53" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54">
@@ -5384,7 +5384,7 @@
         <v>0.816755213333333</v>
       </c>
       <c r="X54" t="n">
-        <v>0.8150609</v>
+        <v>0.8133666</v>
       </c>
       <c r="Y54" t="n">
         <v>47</v>
@@ -5464,13 +5464,13 @@
         <v>0.817821953333333</v>
       </c>
       <c r="X55" t="n">
-        <v>0.8172596</v>
+        <v>0.8166972</v>
       </c>
       <c r="Y55" t="n">
         <v>33</v>
       </c>
       <c r="Z55" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56">
@@ -5544,13 +5544,13 @@
         <v>0.819471413333333</v>
       </c>
       <c r="X56" t="n">
-        <v>0.817377</v>
+        <v>0.8152826</v>
       </c>
       <c r="Y56" t="n">
         <v>2</v>
       </c>
       <c r="Z56" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57">
@@ -5624,13 +5624,13 @@
         <v>0.819100426666667</v>
       </c>
       <c r="X57" t="n">
-        <v>0.81882135</v>
+        <v>0.8185423</v>
       </c>
       <c r="Y57" t="n">
         <v>6</v>
       </c>
       <c r="Z57" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
@@ -5704,13 +5704,13 @@
         <v>0.81943078</v>
       </c>
       <c r="X58" t="n">
-        <v>0.8204127</v>
+        <v>0.8213946</v>
       </c>
       <c r="Y58" t="n">
         <v>3</v>
       </c>
       <c r="Z58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -5784,13 +5784,13 @@
         <v>0.810207853333333</v>
       </c>
       <c r="X59" t="n">
-        <v>0.80490275</v>
+        <v>0.7995976</v>
       </c>
       <c r="Y59" t="n">
         <v>48</v>
       </c>
       <c r="Z59" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60">
@@ -5864,13 +5864,13 @@
         <v>0.789216433333333</v>
       </c>
       <c r="X60" t="n">
-        <v>0.79165475</v>
+        <v>0.7940931</v>
       </c>
       <c r="Y60" t="n">
         <v>50</v>
       </c>
       <c r="Z60" t="n">
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61">
@@ -5944,7 +5944,7 @@
         <v>0.72285564</v>
       </c>
       <c r="X61" t="n">
-        <v>0.71511085</v>
+        <v>0.7073661</v>
       </c>
       <c r="Y61" t="n">
         <v>66</v>
@@ -6024,7 +6024,7 @@
         <v>0.710843413333333</v>
       </c>
       <c r="X62" t="n">
-        <v>0.6963511</v>
+        <v>0.6944635</v>
       </c>
       <c r="Y62" t="n">
         <v>68</v>
@@ -6104,13 +6104,13 @@
         <v>0.67294402</v>
       </c>
       <c r="X63" t="n">
-        <v>0.668229</v>
+        <v>0.663514</v>
       </c>
       <c r="Y63" t="n">
         <v>70</v>
       </c>
       <c r="Z63" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64">
@@ -6184,7 +6184,7 @@
         <v>0.637467653333333</v>
       </c>
       <c r="X64" t="n">
-        <v>0.60895015</v>
+        <v>0.59356</v>
       </c>
       <c r="Y64" t="n">
         <v>72</v>
@@ -6264,7 +6264,7 @@
         <v>0.6142179</v>
       </c>
       <c r="X65" t="n">
-        <v>0.57612565</v>
+        <v>0.5757831</v>
       </c>
       <c r="Y65" t="n">
         <v>74</v>
@@ -6344,7 +6344,7 @@
         <v>0.59709062</v>
       </c>
       <c r="X66" t="n">
-        <v>0.55616065</v>
+        <v>0.5497338</v>
       </c>
       <c r="Y66" t="n">
         <v>76</v>
@@ -6424,7 +6424,7 @@
         <v>0.580567833333333</v>
       </c>
       <c r="X67" t="n">
-        <v>0.54633335</v>
+        <v>0.5397681</v>
       </c>
       <c r="Y67" t="n">
         <v>78</v>
@@ -6504,13 +6504,13 @@
         <v>0.574444653333333</v>
       </c>
       <c r="X68" t="n">
-        <v>0.54323655</v>
+        <v>0.5383429</v>
       </c>
       <c r="Y68" t="n">
         <v>80</v>
       </c>
       <c r="Z68" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69">
@@ -6584,13 +6584,13 @@
         <v>0.56790126</v>
       </c>
       <c r="X69" t="n">
-        <v>0.5399879</v>
+        <v>0.5372992</v>
       </c>
       <c r="Y69" t="n">
         <v>82</v>
       </c>
       <c r="Z69" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70">
@@ -6664,7 +6664,7 @@
         <v>0.56241696</v>
       </c>
       <c r="X70" t="n">
-        <v>0.5374224</v>
+        <v>0.5358974</v>
       </c>
       <c r="Y70" t="n">
         <v>85</v>
@@ -6744,7 +6744,7 @@
         <v>0.556365353333333</v>
       </c>
       <c r="X71" t="n">
-        <v>0.53471405</v>
+        <v>0.5346123</v>
       </c>
       <c r="Y71" t="n">
         <v>86</v>
@@ -6824,7 +6824,7 @@
         <v>0.5490243</v>
       </c>
       <c r="X72" t="n">
-        <v>0.52840285</v>
+        <v>0.5262244</v>
       </c>
       <c r="Y72" t="n">
         <v>89</v>
@@ -6904,7 +6904,7 @@
         <v>0.5444823</v>
       </c>
       <c r="X73" t="n">
-        <v>0.5261238</v>
+        <v>0.5232695</v>
       </c>
       <c r="Y73" t="n">
         <v>90</v>
@@ -6984,13 +6984,13 @@
         <v>0.819423113333333</v>
       </c>
       <c r="X74" t="n">
-        <v>0.81735285</v>
+        <v>0.8152826</v>
       </c>
       <c r="Y74" t="n">
         <v>4</v>
       </c>
       <c r="Z74" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75">
@@ -7064,13 +7064,13 @@
         <v>0.819115</v>
       </c>
       <c r="X75" t="n">
-        <v>0.81882865</v>
+        <v>0.8185423</v>
       </c>
       <c r="Y75" t="n">
         <v>5</v>
       </c>
       <c r="Z75" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76">
@@ -7144,13 +7144,13 @@
         <v>0.819724513333333</v>
       </c>
       <c r="X76" t="n">
-        <v>0.8204593</v>
+        <v>0.8211941</v>
       </c>
       <c r="Y76" t="n">
         <v>1</v>
       </c>
       <c r="Z76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
@@ -7224,13 +7224,13 @@
         <v>0.80944766</v>
       </c>
       <c r="X77" t="n">
-        <v>0.8046271</v>
+        <v>0.7998065</v>
       </c>
       <c r="Y77" t="n">
         <v>49</v>
       </c>
       <c r="Z77" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="78">
@@ -7304,7 +7304,7 @@
         <v>0.788967226666667</v>
       </c>
       <c r="X78" t="n">
-        <v>0.7925545</v>
+        <v>0.7961418</v>
       </c>
       <c r="Y78" t="n">
         <v>51</v>
@@ -7384,7 +7384,7 @@
         <v>0.723080933333333</v>
       </c>
       <c r="X79" t="n">
-        <v>0.71736515</v>
+        <v>0.7116494</v>
       </c>
       <c r="Y79" t="n">
         <v>65</v>
@@ -7464,7 +7464,7 @@
         <v>0.711928813333333</v>
       </c>
       <c r="X80" t="n">
-        <v>0.6998592</v>
+        <v>0.6960918</v>
       </c>
       <c r="Y80" t="n">
         <v>67</v>
@@ -7544,13 +7544,13 @@
         <v>0.674726093333333</v>
       </c>
       <c r="X81" t="n">
-        <v>0.66897515</v>
+        <v>0.6632242</v>
       </c>
       <c r="Y81" t="n">
         <v>69</v>
       </c>
       <c r="Z81" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="82">
@@ -7624,7 +7624,7 @@
         <v>0.640178346666667</v>
       </c>
       <c r="X82" t="n">
-        <v>0.61573165</v>
+        <v>0.5960234</v>
       </c>
       <c r="Y82" t="n">
         <v>71</v>
@@ -7704,7 +7704,7 @@
         <v>0.61791942</v>
       </c>
       <c r="X83" t="n">
-        <v>0.5817284</v>
+        <v>0.5807145</v>
       </c>
       <c r="Y83" t="n">
         <v>73</v>
@@ -7784,7 +7784,7 @@
         <v>0.60100658</v>
       </c>
       <c r="X84" t="n">
-        <v>0.56030935</v>
+        <v>0.5551759</v>
       </c>
       <c r="Y84" t="n">
         <v>75</v>
@@ -7864,7 +7864,7 @@
         <v>0.5855043</v>
       </c>
       <c r="X85" t="n">
-        <v>0.54879295</v>
+        <v>0.5416511</v>
       </c>
       <c r="Y85" t="n">
         <v>77</v>
@@ -7944,7 +7944,7 @@
         <v>0.578064313333333</v>
       </c>
       <c r="X86" t="n">
-        <v>0.54512875</v>
+        <v>0.5397681</v>
       </c>
       <c r="Y86" t="n">
         <v>79</v>
@@ -8024,13 +8024,13 @@
         <v>0.572617593333333</v>
       </c>
       <c r="X87" t="n">
-        <v>0.54294785</v>
+        <v>0.5386513</v>
       </c>
       <c r="Y87" t="n">
         <v>81</v>
       </c>
       <c r="Z87" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88">
@@ -8104,13 +8104,13 @@
         <v>0.567136746666667</v>
       </c>
       <c r="X88" t="n">
-        <v>0.53997165</v>
+        <v>0.5377399</v>
       </c>
       <c r="Y88" t="n">
         <v>83</v>
       </c>
       <c r="Z88" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="89">
@@ -8184,7 +8184,7 @@
         <v>0.56246316</v>
       </c>
       <c r="X89" t="n">
-        <v>0.53771635</v>
+        <v>0.5365857</v>
       </c>
       <c r="Y89" t="n">
         <v>84</v>
@@ -8264,7 +8264,7 @@
         <v>0.553319313333333</v>
       </c>
       <c r="X90" t="n">
-        <v>0.53122495</v>
+        <v>0.529867</v>
       </c>
       <c r="Y90" t="n">
         <v>87</v>
@@ -8344,7 +8344,7 @@
         <v>0.549672493333333</v>
       </c>
       <c r="X91" t="n">
-        <v>0.52958775</v>
+        <v>0.52756</v>
       </c>
       <c r="Y91" t="n">
         <v>88</v>
@@ -8518,13 +8518,13 @@
         <v>0.921097786666667</v>
       </c>
       <c r="X2" t="n">
-        <v>0.93272795</v>
+        <v>0.9332168</v>
       </c>
       <c r="Y2" t="n">
         <v>18</v>
       </c>
       <c r="Z2" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -8598,13 +8598,13 @@
         <v>0.921106873333333</v>
       </c>
       <c r="X3" t="n">
-        <v>0.93272885</v>
+        <v>0.933218</v>
       </c>
       <c r="Y3" t="n">
         <v>14</v>
       </c>
       <c r="Z3" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -8678,13 +8678,13 @@
         <v>0.921102733333333</v>
       </c>
       <c r="X4" t="n">
-        <v>0.93272765</v>
+        <v>0.9332168</v>
       </c>
       <c r="Y4" t="n">
         <v>16</v>
       </c>
       <c r="Z4" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
@@ -8758,13 +8758,13 @@
         <v>0.92109696</v>
       </c>
       <c r="X5" t="n">
-        <v>0.93272055</v>
+        <v>0.9332094</v>
       </c>
       <c r="Y5" t="n">
         <v>19</v>
       </c>
       <c r="Z5" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -8838,13 +8838,13 @@
         <v>0.921111593333333</v>
       </c>
       <c r="X6" t="n">
-        <v>0.9327427</v>
+        <v>0.9332543</v>
       </c>
       <c r="Y6" t="n">
         <v>10</v>
       </c>
       <c r="Z6" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -8918,13 +8918,13 @@
         <v>0.921106953333333</v>
       </c>
       <c r="X7" t="n">
-        <v>0.9327276</v>
+        <v>0.933218</v>
       </c>
       <c r="Y7" t="n">
         <v>13</v>
       </c>
       <c r="Z7" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
@@ -8998,13 +8998,13 @@
         <v>0.921112413333333</v>
       </c>
       <c r="X8" t="n">
-        <v>0.9327725</v>
+        <v>0.9332408</v>
       </c>
       <c r="Y8" t="n">
         <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -9078,13 +9078,13 @@
         <v>0.92102276</v>
       </c>
       <c r="X9" t="n">
-        <v>0.9325321</v>
+        <v>0.933234</v>
       </c>
       <c r="Y9" t="n">
         <v>29</v>
       </c>
       <c r="Z9" t="n">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
@@ -9158,13 +9158,13 @@
         <v>0.921108953333333</v>
       </c>
       <c r="X10" t="n">
-        <v>0.9327181</v>
+        <v>0.9332125</v>
       </c>
       <c r="Y10" t="n">
         <v>11</v>
       </c>
       <c r="Z10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11">
@@ -9238,13 +9238,13 @@
         <v>0.921071126666667</v>
       </c>
       <c r="X11" t="n">
-        <v>0.93277125</v>
+        <v>0.9332408</v>
       </c>
       <c r="Y11" t="n">
         <v>23</v>
       </c>
       <c r="Z11" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
@@ -9318,13 +9318,13 @@
         <v>0.92091694</v>
       </c>
       <c r="X12" t="n">
-        <v>0.93253515</v>
+        <v>0.9332352</v>
       </c>
       <c r="Y12" t="n">
         <v>33</v>
       </c>
       <c r="Z12" t="n">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
@@ -9398,13 +9398,13 @@
         <v>0.921107026666667</v>
       </c>
       <c r="X13" t="n">
-        <v>0.93271965</v>
+        <v>0.9332205</v>
       </c>
       <c r="Y13" t="n">
         <v>12</v>
       </c>
       <c r="Z13" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
@@ -9478,13 +9478,13 @@
         <v>0.921053513333333</v>
       </c>
       <c r="X14" t="n">
-        <v>0.93270555</v>
+        <v>0.9331794</v>
       </c>
       <c r="Y14" t="n">
         <v>25</v>
       </c>
       <c r="Z14" t="n">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15">
@@ -9558,13 +9558,13 @@
         <v>0.92060794</v>
       </c>
       <c r="X15" t="n">
-        <v>0.9325514</v>
+        <v>0.9331922</v>
       </c>
       <c r="Y15" t="n">
         <v>34</v>
       </c>
       <c r="Z15" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16">
@@ -9638,7 +9638,7 @@
         <v>0.92111584</v>
       </c>
       <c r="X16" t="n">
-        <v>0.9327669</v>
+        <v>0.9332438</v>
       </c>
       <c r="Y16" t="n">
         <v>8</v>
@@ -9718,13 +9718,13 @@
         <v>0.88682758</v>
       </c>
       <c r="X17" t="n">
-        <v>0.93031915</v>
+        <v>0.9309133</v>
       </c>
       <c r="Y17" t="n">
         <v>53</v>
       </c>
       <c r="Z17" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18">
@@ -9798,13 +9798,13 @@
         <v>0.92060794</v>
       </c>
       <c r="X18" t="n">
-        <v>0.9325514</v>
+        <v>0.9331922</v>
       </c>
       <c r="Y18" t="n">
         <v>35</v>
       </c>
       <c r="Z18" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19">
@@ -9878,13 +9878,13 @@
         <v>0.921099766666667</v>
       </c>
       <c r="X19" t="n">
-        <v>0.9327611</v>
+        <v>0.9331978</v>
       </c>
       <c r="Y19" t="n">
         <v>17</v>
       </c>
       <c r="Z19" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
@@ -9958,13 +9958,13 @@
         <v>0.88683022</v>
       </c>
       <c r="X20" t="n">
-        <v>0.93031915</v>
+        <v>0.9309133</v>
       </c>
       <c r="Y20" t="n">
         <v>52</v>
       </c>
       <c r="Z20" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
@@ -10038,13 +10038,13 @@
         <v>0.92036156</v>
       </c>
       <c r="X21" t="n">
-        <v>0.9325514</v>
+        <v>0.9331922</v>
       </c>
       <c r="Y21" t="n">
         <v>36</v>
       </c>
       <c r="Z21" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22">
@@ -10118,13 +10118,13 @@
         <v>0.921106726666667</v>
       </c>
       <c r="X22" t="n">
-        <v>0.93277335</v>
+        <v>0.9332223</v>
       </c>
       <c r="Y22" t="n">
         <v>15</v>
       </c>
       <c r="Z22" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
@@ -10198,13 +10198,13 @@
         <v>0.886698526666667</v>
       </c>
       <c r="X23" t="n">
-        <v>0.9303568</v>
+        <v>0.9309536</v>
       </c>
       <c r="Y23" t="n">
         <v>54</v>
       </c>
       <c r="Z23" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24">
@@ -10278,13 +10278,13 @@
         <v>0.92036156</v>
       </c>
       <c r="X24" t="n">
-        <v>0.9325514</v>
+        <v>0.9331922</v>
       </c>
       <c r="Y24" t="n">
         <v>37</v>
       </c>
       <c r="Z24" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25">
@@ -10358,13 +10358,13 @@
         <v>0.92108766</v>
       </c>
       <c r="X25" t="n">
-        <v>0.93277645</v>
+        <v>0.9332395</v>
       </c>
       <c r="Y25" t="n">
         <v>21</v>
       </c>
       <c r="Z25" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
@@ -10438,7 +10438,7 @@
         <v>0.886661013333333</v>
       </c>
       <c r="X26" t="n">
-        <v>0.9301324</v>
+        <v>0.9304895</v>
       </c>
       <c r="Y26" t="n">
         <v>55</v>
@@ -10518,13 +10518,13 @@
         <v>0.92036156</v>
       </c>
       <c r="X27" t="n">
-        <v>0.9325514</v>
+        <v>0.9331922</v>
       </c>
       <c r="Y27" t="n">
         <v>38</v>
       </c>
       <c r="Z27" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28">
@@ -10598,13 +10598,13 @@
         <v>0.92111916</v>
       </c>
       <c r="X28" t="n">
-        <v>0.9327749</v>
+        <v>0.9332684</v>
       </c>
       <c r="Y28" t="n">
         <v>7</v>
       </c>
       <c r="Z28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
@@ -10678,13 +10678,13 @@
         <v>0.88635544</v>
       </c>
       <c r="X29" t="n">
-        <v>0.9301232</v>
+        <v>0.9304895</v>
       </c>
       <c r="Y29" t="n">
         <v>56</v>
       </c>
       <c r="Z29" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30">
@@ -10758,13 +10758,13 @@
         <v>0.92036156</v>
       </c>
       <c r="X30" t="n">
-        <v>0.9325514</v>
+        <v>0.9331922</v>
       </c>
       <c r="Y30" t="n">
         <v>39</v>
       </c>
       <c r="Z30" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31">
@@ -10838,13 +10838,13 @@
         <v>0.921093906666667</v>
       </c>
       <c r="X31" t="n">
-        <v>0.9327485</v>
+        <v>0.9332242</v>
       </c>
       <c r="Y31" t="n">
         <v>20</v>
       </c>
       <c r="Z31" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
@@ -10918,13 +10918,13 @@
         <v>0.886346073333333</v>
       </c>
       <c r="X32" t="n">
-        <v>0.9301235</v>
+        <v>0.9304895</v>
       </c>
       <c r="Y32" t="n">
         <v>57</v>
       </c>
       <c r="Z32" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33">
@@ -10998,13 +10998,13 @@
         <v>0.92036156</v>
       </c>
       <c r="X33" t="n">
-        <v>0.9325514</v>
+        <v>0.9331922</v>
       </c>
       <c r="Y33" t="n">
         <v>40</v>
       </c>
       <c r="Z33" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34">
@@ -11078,13 +11078,13 @@
         <v>0.921080633333333</v>
       </c>
       <c r="X34" t="n">
-        <v>0.9327221</v>
+        <v>0.9331978</v>
       </c>
       <c r="Y34" t="n">
         <v>22</v>
       </c>
       <c r="Z34" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35">
@@ -11158,7 +11158,7 @@
         <v>0.886343306666667</v>
       </c>
       <c r="X35" t="n">
-        <v>0.93012165</v>
+        <v>0.9304895</v>
       </c>
       <c r="Y35" t="n">
         <v>58</v>
@@ -11238,13 +11238,13 @@
         <v>0.92036156</v>
       </c>
       <c r="X36" t="n">
-        <v>0.9325514</v>
+        <v>0.9331922</v>
       </c>
       <c r="Y36" t="n">
         <v>41</v>
       </c>
       <c r="Z36" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37">
@@ -11318,13 +11318,13 @@
         <v>0.9210279</v>
       </c>
       <c r="X37" t="n">
-        <v>0.9327083</v>
+        <v>0.9331843</v>
       </c>
       <c r="Y37" t="n">
         <v>28</v>
       </c>
       <c r="Z37" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38">
@@ -11398,7 +11398,7 @@
         <v>0.886343226666667</v>
       </c>
       <c r="X38" t="n">
-        <v>0.93012165</v>
+        <v>0.9304895</v>
       </c>
       <c r="Y38" t="n">
         <v>59</v>
@@ -11478,13 +11478,13 @@
         <v>0.920028846666667</v>
       </c>
       <c r="X39" t="n">
-        <v>0.9325465</v>
+        <v>0.9331922</v>
       </c>
       <c r="Y39" t="n">
         <v>42</v>
       </c>
       <c r="Z39" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40">
@@ -11558,13 +11558,13 @@
         <v>0.921040346666667</v>
       </c>
       <c r="X40" t="n">
-        <v>0.9327126</v>
+        <v>0.9331978</v>
       </c>
       <c r="Y40" t="n">
         <v>26</v>
       </c>
       <c r="Z40" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41">
@@ -11638,7 +11638,7 @@
         <v>0.886343226666667</v>
       </c>
       <c r="X41" t="n">
-        <v>0.93012165</v>
+        <v>0.9304895</v>
       </c>
       <c r="Y41" t="n">
         <v>60</v>
@@ -11718,13 +11718,13 @@
         <v>0.92002852</v>
       </c>
       <c r="X42" t="n">
-        <v>0.93254835</v>
+        <v>0.9331959</v>
       </c>
       <c r="Y42" t="n">
         <v>43</v>
       </c>
       <c r="Z42" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43">
@@ -11798,13 +11798,13 @@
         <v>0.921034233333333</v>
       </c>
       <c r="X43" t="n">
-        <v>0.9327396</v>
+        <v>0.9332248</v>
       </c>
       <c r="Y43" t="n">
         <v>27</v>
       </c>
       <c r="Z43" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
@@ -11878,7 +11878,7 @@
         <v>0.886343226666667</v>
       </c>
       <c r="X44" t="n">
-        <v>0.93012165</v>
+        <v>0.9304895</v>
       </c>
       <c r="Y44" t="n">
         <v>61</v>
@@ -11958,13 +11958,13 @@
         <v>0.919959933333333</v>
       </c>
       <c r="X45" t="n">
-        <v>0.93250475</v>
+        <v>0.9331959</v>
       </c>
       <c r="Y45" t="n">
         <v>44</v>
       </c>
       <c r="Z45" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46">
@@ -12038,13 +12038,13 @@
         <v>0.921022233333333</v>
       </c>
       <c r="X46" t="n">
-        <v>0.932739</v>
+        <v>0.9332481</v>
       </c>
       <c r="Y46" t="n">
         <v>30</v>
       </c>
       <c r="Z46" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47">
@@ -12118,7 +12118,7 @@
         <v>0.886343226666667</v>
       </c>
       <c r="X47" t="n">
-        <v>0.93012165</v>
+        <v>0.9304895</v>
       </c>
       <c r="Y47" t="n">
         <v>62</v>
@@ -12198,7 +12198,7 @@
         <v>0.919800786666667</v>
       </c>
       <c r="X48" t="n">
-        <v>0.93210235</v>
+        <v>0.9331585</v>
       </c>
       <c r="Y48" t="n">
         <v>45</v>
@@ -12278,13 +12278,13 @@
         <v>0.92099188</v>
       </c>
       <c r="X49" t="n">
-        <v>0.9327249</v>
+        <v>0.9332248</v>
       </c>
       <c r="Y49" t="n">
         <v>31</v>
       </c>
       <c r="Z49" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50">
@@ -12358,7 +12358,7 @@
         <v>0.886341106666667</v>
       </c>
       <c r="X50" t="n">
-        <v>0.93012165</v>
+        <v>0.9304895</v>
       </c>
       <c r="Y50" t="n">
         <v>63</v>
@@ -12438,7 +12438,7 @@
         <v>0.919800786666667</v>
       </c>
       <c r="X51" t="n">
-        <v>0.93210235</v>
+        <v>0.9331585</v>
       </c>
       <c r="Y51" t="n">
         <v>46</v>
@@ -12518,13 +12518,13 @@
         <v>0.921067806666667</v>
       </c>
       <c r="X52" t="n">
-        <v>0.93270275</v>
+        <v>0.9332027</v>
       </c>
       <c r="Y52" t="n">
         <v>24</v>
       </c>
       <c r="Z52" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53">
@@ -12598,7 +12598,7 @@
         <v>0.886341106666667</v>
       </c>
       <c r="X53" t="n">
-        <v>0.93012165</v>
+        <v>0.9304895</v>
       </c>
       <c r="Y53" t="n">
         <v>64</v>
@@ -12678,13 +12678,13 @@
         <v>0.919466886666667</v>
       </c>
       <c r="X54" t="n">
-        <v>0.9306576</v>
+        <v>0.9308884</v>
       </c>
       <c r="Y54" t="n">
         <v>47</v>
       </c>
       <c r="Z54" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55">
@@ -12758,13 +12758,13 @@
         <v>0.920938433333333</v>
       </c>
       <c r="X55" t="n">
-        <v>0.93268495</v>
+        <v>0.9332156</v>
       </c>
       <c r="Y55" t="n">
         <v>32</v>
       </c>
       <c r="Z55" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56">
@@ -12838,7 +12838,7 @@
         <v>0.921351253333333</v>
       </c>
       <c r="X56" t="n">
-        <v>0.93318135</v>
+        <v>0.9346081</v>
       </c>
       <c r="Y56" t="n">
         <v>2</v>
@@ -12918,7 +12918,7 @@
         <v>0.9212817</v>
       </c>
       <c r="X57" t="n">
-        <v>0.9330727</v>
+        <v>0.9344583</v>
       </c>
       <c r="Y57" t="n">
         <v>6</v>
@@ -12998,7 +12998,7 @@
         <v>0.921350986666667</v>
       </c>
       <c r="X58" t="n">
-        <v>0.9329029</v>
+        <v>0.9341605</v>
       </c>
       <c r="Y58" t="n">
         <v>3</v>
@@ -13078,13 +13078,13 @@
         <v>0.919355926666667</v>
       </c>
       <c r="X59" t="n">
-        <v>0.9327172</v>
+        <v>0.9338241</v>
       </c>
       <c r="Y59" t="n">
         <v>48</v>
       </c>
       <c r="Z59" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
@@ -13158,7 +13158,7 @@
         <v>0.912619113333333</v>
       </c>
       <c r="X60" t="n">
-        <v>0.92718875</v>
+        <v>0.9278482</v>
       </c>
       <c r="Y60" t="n">
         <v>51</v>
@@ -13238,7 +13238,7 @@
         <v>0.85413994</v>
       </c>
       <c r="X61" t="n">
-        <v>0.89486425</v>
+        <v>0.9157036</v>
       </c>
       <c r="Y61" t="n">
         <v>66</v>
@@ -13318,7 +13318,7 @@
         <v>0.84681056</v>
       </c>
       <c r="X62" t="n">
-        <v>0.87438095</v>
+        <v>0.9019513</v>
       </c>
       <c r="Y62" t="n">
         <v>68</v>
@@ -13398,7 +13398,7 @@
         <v>0.815700106666667</v>
       </c>
       <c r="X63" t="n">
-        <v>0.84406685</v>
+        <v>0.8533409</v>
       </c>
       <c r="Y63" t="n">
         <v>70</v>
@@ -13478,13 +13478,13 @@
         <v>0.79102672</v>
       </c>
       <c r="X64" t="n">
-        <v>0.82858445</v>
+        <v>0.8348872</v>
       </c>
       <c r="Y64" t="n">
         <v>72</v>
       </c>
       <c r="Z64" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65">
@@ -13558,7 +13558,7 @@
         <v>0.76482768</v>
       </c>
       <c r="X65" t="n">
-        <v>0.80569495</v>
+        <v>0.8250959</v>
       </c>
       <c r="Y65" t="n">
         <v>74</v>
@@ -13638,7 +13638,7 @@
         <v>0.739066353333333</v>
       </c>
       <c r="X66" t="n">
-        <v>0.74566675</v>
+        <v>0.751787</v>
       </c>
       <c r="Y66" t="n">
         <v>76</v>
@@ -13718,7 +13718,7 @@
         <v>0.716286706666667</v>
       </c>
       <c r="X67" t="n">
-        <v>0.70960305</v>
+        <v>0.7029194</v>
       </c>
       <c r="Y67" t="n">
         <v>78</v>
@@ -13798,7 +13798,7 @@
         <v>0.707516506666667</v>
       </c>
       <c r="X68" t="n">
-        <v>0.7015819</v>
+        <v>0.6956473</v>
       </c>
       <c r="Y68" t="n">
         <v>80</v>
@@ -13878,7 +13878,7 @@
         <v>0.69832682</v>
       </c>
       <c r="X69" t="n">
-        <v>0.6943241</v>
+        <v>0.6903214</v>
       </c>
       <c r="Y69" t="n">
         <v>83</v>
@@ -13958,7 +13958,7 @@
         <v>0.690704853333333</v>
       </c>
       <c r="X70" t="n">
-        <v>0.68693675</v>
+        <v>0.6831686</v>
       </c>
       <c r="Y70" t="n">
         <v>85</v>
@@ -14038,7 +14038,7 @@
         <v>0.682914586666667</v>
       </c>
       <c r="X71" t="n">
-        <v>0.6771307</v>
+        <v>0.6766113</v>
       </c>
       <c r="Y71" t="n">
         <v>86</v>
@@ -14118,7 +14118,7 @@
         <v>0.669895066666667</v>
       </c>
       <c r="X72" t="n">
-        <v>0.64492745</v>
+        <v>0.6338118</v>
       </c>
       <c r="Y72" t="n">
         <v>89</v>
@@ -14198,7 +14198,7 @@
         <v>0.662417486666667</v>
       </c>
       <c r="X73" t="n">
-        <v>0.6332984</v>
+        <v>0.6187342</v>
       </c>
       <c r="Y73" t="n">
         <v>90</v>
@@ -14278,7 +14278,7 @@
         <v>0.92134142</v>
       </c>
       <c r="X74" t="n">
-        <v>0.93318135</v>
+        <v>0.9346081</v>
       </c>
       <c r="Y74" t="n">
         <v>4</v>
@@ -14358,7 +14358,7 @@
         <v>0.921284506666667</v>
       </c>
       <c r="X75" t="n">
-        <v>0.933069</v>
+        <v>0.9344509</v>
       </c>
       <c r="Y75" t="n">
         <v>5</v>
@@ -14438,7 +14438,7 @@
         <v>0.921411833333333</v>
       </c>
       <c r="X76" t="n">
-        <v>0.9329023</v>
+        <v>0.9341593</v>
       </c>
       <c r="Y76" t="n">
         <v>1</v>
@@ -14518,13 +14518,13 @@
         <v>0.919185886666667</v>
       </c>
       <c r="X77" t="n">
-        <v>0.9327648</v>
+        <v>0.9338333</v>
       </c>
       <c r="Y77" t="n">
         <v>49</v>
       </c>
       <c r="Z77" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78">
@@ -14598,7 +14598,7 @@
         <v>0.912683873333333</v>
       </c>
       <c r="X78" t="n">
-        <v>0.92718415</v>
+        <v>0.9278416</v>
       </c>
       <c r="Y78" t="n">
         <v>50</v>
@@ -14678,7 +14678,7 @@
         <v>0.854269733333333</v>
       </c>
       <c r="X79" t="n">
-        <v>0.89583495</v>
+        <v>0.9167474</v>
       </c>
       <c r="Y79" t="n">
         <v>65</v>
@@ -14758,7 +14758,7 @@
         <v>0.847965673333333</v>
       </c>
       <c r="X80" t="n">
-        <v>0.8765346</v>
+        <v>0.9051035</v>
       </c>
       <c r="Y80" t="n">
         <v>67</v>
@@ -14838,7 +14838,7 @@
         <v>0.81761664</v>
       </c>
       <c r="X81" t="n">
-        <v>0.84462235</v>
+        <v>0.8543282</v>
       </c>
       <c r="Y81" t="n">
         <v>69</v>
@@ -14918,7 +14918,7 @@
         <v>0.794124473333333</v>
       </c>
       <c r="X82" t="n">
-        <v>0.83183965</v>
+        <v>0.8350108</v>
       </c>
       <c r="Y82" t="n">
         <v>71</v>
@@ -14998,13 +14998,13 @@
         <v>0.770535206666667</v>
       </c>
       <c r="X83" t="n">
-        <v>0.81539345</v>
+        <v>0.8349102</v>
       </c>
       <c r="Y83" t="n">
         <v>73</v>
       </c>
       <c r="Z83" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="84">
@@ -15078,7 +15078,7 @@
         <v>0.74588798</v>
       </c>
       <c r="X84" t="n">
-        <v>0.7651705</v>
+        <v>0.772681</v>
       </c>
       <c r="Y84" t="n">
         <v>75</v>
@@ -15158,7 +15158,7 @@
         <v>0.72306832</v>
       </c>
       <c r="X85" t="n">
-        <v>0.71779775</v>
+        <v>0.7125272</v>
       </c>
       <c r="Y85" t="n">
         <v>77</v>
@@ -15238,7 +15238,7 @@
         <v>0.713864</v>
       </c>
       <c r="X86" t="n">
-        <v>0.7083917</v>
+        <v>0.7029194</v>
       </c>
       <c r="Y86" t="n">
         <v>79</v>
@@ -15318,7 +15318,7 @@
         <v>0.70633748</v>
       </c>
       <c r="X87" t="n">
-        <v>0.70177905</v>
+        <v>0.6972206</v>
       </c>
       <c r="Y87" t="n">
         <v>81</v>
@@ -15398,7 +15398,7 @@
         <v>0.69870064</v>
       </c>
       <c r="X88" t="n">
-        <v>0.6956354</v>
+        <v>0.6925702</v>
       </c>
       <c r="Y88" t="n">
         <v>82</v>
@@ -15478,7 +15478,7 @@
         <v>0.691691846666667</v>
       </c>
       <c r="X89" t="n">
-        <v>0.68918635</v>
+        <v>0.6866809</v>
       </c>
       <c r="Y89" t="n">
         <v>84</v>
@@ -15558,7 +15558,7 @@
         <v>0.677956653333333</v>
       </c>
       <c r="X90" t="n">
-        <v>0.6593274</v>
+        <v>0.6523983</v>
       </c>
       <c r="Y90" t="n">
         <v>87</v>
@@ -15638,7 +15638,7 @@
         <v>0.672291526666667</v>
       </c>
       <c r="X91" t="n">
-        <v>0.65097345</v>
+        <v>0.6406268</v>
       </c>
       <c r="Y91" t="n">
         <v>88</v>
@@ -15812,13 +15812,13 @@
         <v>0.939637553333333</v>
       </c>
       <c r="X2" t="n">
-        <v>0.9519475</v>
+        <v>0.9527562</v>
       </c>
       <c r="Y2" t="n">
         <v>14</v>
       </c>
       <c r="Z2" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -15892,13 +15892,13 @@
         <v>0.93964212</v>
       </c>
       <c r="X3" t="n">
-        <v>0.95194795</v>
+        <v>0.9527568</v>
       </c>
       <c r="Y3" t="n">
         <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -15972,13 +15972,13 @@
         <v>0.93964004</v>
       </c>
       <c r="X4" t="n">
-        <v>0.95194735</v>
+        <v>0.9527562</v>
       </c>
       <c r="Y4" t="n">
         <v>13</v>
       </c>
       <c r="Z4" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
@@ -16052,13 +16052,13 @@
         <v>0.939636933333333</v>
       </c>
       <c r="X5" t="n">
-        <v>0.9519434</v>
+        <v>0.9527518</v>
       </c>
       <c r="Y5" t="n">
         <v>15</v>
       </c>
       <c r="Z5" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
@@ -16132,13 +16132,13 @@
         <v>0.939645533333333</v>
       </c>
       <c r="X6" t="n">
-        <v>0.9519568</v>
+        <v>0.952778</v>
       </c>
       <c r="Y6" t="n">
         <v>7</v>
       </c>
       <c r="Z6" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -16212,13 +16212,13 @@
         <v>0.939642173333333</v>
       </c>
       <c r="X7" t="n">
-        <v>0.9519473</v>
+        <v>0.9527568</v>
       </c>
       <c r="Y7" t="n">
         <v>10</v>
       </c>
       <c r="Z7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
@@ -16292,13 +16292,13 @@
         <v>0.93964078</v>
       </c>
       <c r="X8" t="n">
-        <v>0.9519659</v>
+        <v>0.9527609</v>
       </c>
       <c r="Y8" t="n">
         <v>12</v>
       </c>
       <c r="Z8" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
@@ -16372,13 +16372,13 @@
         <v>0.939544286666667</v>
       </c>
       <c r="X9" t="n">
-        <v>0.95177785</v>
+        <v>0.952766</v>
       </c>
       <c r="Y9" t="n">
         <v>31</v>
       </c>
       <c r="Z9" t="n">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -16452,7 +16452,7 @@
         <v>0.939643113333333</v>
       </c>
       <c r="X10" t="n">
-        <v>0.9519426</v>
+        <v>0.9527537</v>
       </c>
       <c r="Y10" t="n">
         <v>8</v>
@@ -16532,13 +16532,13 @@
         <v>0.939618526666667</v>
       </c>
       <c r="X11" t="n">
-        <v>0.95196435</v>
+        <v>0.9527609</v>
       </c>
       <c r="Y11" t="n">
         <v>21</v>
       </c>
       <c r="Z11" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
@@ -16612,13 +16612,13 @@
         <v>0.939471453333333</v>
       </c>
       <c r="X12" t="n">
-        <v>0.95178105</v>
+        <v>0.9527698</v>
       </c>
       <c r="Y12" t="n">
         <v>33</v>
       </c>
       <c r="Z12" t="n">
-        <v>44</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -16692,13 +16692,13 @@
         <v>0.939642266666667</v>
       </c>
       <c r="X13" t="n">
-        <v>0.95194355</v>
+        <v>0.9527578</v>
       </c>
       <c r="Y13" t="n">
         <v>9</v>
       </c>
       <c r="Z13" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -16772,13 +16772,13 @@
         <v>0.939607866666667</v>
       </c>
       <c r="X14" t="n">
-        <v>0.9519291</v>
+        <v>0.9527282</v>
       </c>
       <c r="Y14" t="n">
         <v>24</v>
       </c>
       <c r="Z14" t="n">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15">
@@ -16852,13 +16852,13 @@
         <v>0.939266466666667</v>
       </c>
       <c r="X15" t="n">
-        <v>0.95178825</v>
+        <v>0.952748</v>
       </c>
       <c r="Y15" t="n">
         <v>34</v>
       </c>
       <c r="Z15" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
@@ -16932,13 +16932,13 @@
         <v>0.93963412</v>
       </c>
       <c r="X16" t="n">
-        <v>0.9519678</v>
+        <v>0.9527694</v>
       </c>
       <c r="Y16" t="n">
         <v>16</v>
       </c>
       <c r="Z16" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
@@ -17012,13 +17012,13 @@
         <v>0.921359806666667</v>
       </c>
       <c r="X17" t="n">
-        <v>0.95132185</v>
+        <v>0.9514154</v>
       </c>
       <c r="Y17" t="n">
         <v>53</v>
       </c>
       <c r="Z17" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18">
@@ -17092,13 +17092,13 @@
         <v>0.939266466666667</v>
       </c>
       <c r="X18" t="n">
-        <v>0.95178825</v>
+        <v>0.952748</v>
       </c>
       <c r="Y18" t="n">
         <v>35</v>
       </c>
       <c r="Z18" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
@@ -17172,13 +17172,13 @@
         <v>0.939624466666667</v>
       </c>
       <c r="X19" t="n">
-        <v>0.95196405</v>
+        <v>0.9527455</v>
       </c>
       <c r="Y19" t="n">
         <v>19</v>
       </c>
       <c r="Z19" t="n">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20">
@@ -17252,13 +17252,13 @@
         <v>0.921360353333333</v>
       </c>
       <c r="X20" t="n">
-        <v>0.95132185</v>
+        <v>0.9514154</v>
       </c>
       <c r="Y20" t="n">
         <v>52</v>
       </c>
       <c r="Z20" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21">
@@ -17332,13 +17332,13 @@
         <v>0.939068306666667</v>
       </c>
       <c r="X21" t="n">
-        <v>0.95178825</v>
+        <v>0.952748</v>
       </c>
       <c r="Y21" t="n">
         <v>36</v>
       </c>
       <c r="Z21" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22">
@@ -17412,13 +17412,13 @@
         <v>0.939629793333333</v>
       </c>
       <c r="X22" t="n">
-        <v>0.9519696</v>
+        <v>0.9527572</v>
       </c>
       <c r="Y22" t="n">
         <v>18</v>
       </c>
       <c r="Z22" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
@@ -17492,13 +17492,13 @@
         <v>0.921316026666667</v>
       </c>
       <c r="X23" t="n">
-        <v>0.95133965</v>
+        <v>0.9514356</v>
       </c>
       <c r="Y23" t="n">
         <v>54</v>
       </c>
       <c r="Z23" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24">
@@ -17572,13 +17572,13 @@
         <v>0.939068306666667</v>
       </c>
       <c r="X24" t="n">
-        <v>0.95178825</v>
+        <v>0.952748</v>
       </c>
       <c r="Y24" t="n">
         <v>37</v>
       </c>
       <c r="Z24" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25">
@@ -17652,13 +17652,13 @@
         <v>0.939617666666667</v>
       </c>
       <c r="X25" t="n">
-        <v>0.9519713</v>
+        <v>0.9527654</v>
       </c>
       <c r="Y25" t="n">
         <v>22</v>
       </c>
       <c r="Z25" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
@@ -17732,13 +17732,13 @@
         <v>0.92129776</v>
       </c>
       <c r="X26" t="n">
-        <v>0.95122595</v>
+        <v>0.9512535</v>
       </c>
       <c r="Y26" t="n">
         <v>55</v>
       </c>
       <c r="Z26" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27">
@@ -17812,13 +17812,13 @@
         <v>0.939068306666667</v>
       </c>
       <c r="X27" t="n">
-        <v>0.95178825</v>
+        <v>0.952748</v>
       </c>
       <c r="Y27" t="n">
         <v>38</v>
       </c>
       <c r="Z27" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28">
@@ -17892,7 +17892,7 @@
         <v>0.93963382</v>
       </c>
       <c r="X28" t="n">
-        <v>0.9519689</v>
+        <v>0.9527795</v>
       </c>
       <c r="Y28" t="n">
         <v>17</v>
@@ -17972,13 +17972,13 @@
         <v>0.921142333333333</v>
       </c>
       <c r="X29" t="n">
-        <v>0.95122215</v>
+        <v>0.9512459</v>
       </c>
       <c r="Y29" t="n">
         <v>56</v>
       </c>
       <c r="Z29" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30">
@@ -18052,13 +18052,13 @@
         <v>0.939068306666667</v>
       </c>
       <c r="X30" t="n">
-        <v>0.95178825</v>
+        <v>0.952748</v>
       </c>
       <c r="Y30" t="n">
         <v>39</v>
       </c>
       <c r="Z30" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31">
@@ -18132,13 +18132,13 @@
         <v>0.939619206666667</v>
       </c>
       <c r="X31" t="n">
-        <v>0.95195585</v>
+        <v>0.9527568</v>
       </c>
       <c r="Y31" t="n">
         <v>20</v>
       </c>
       <c r="Z31" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32">
@@ -18212,13 +18212,13 @@
         <v>0.921137533333333</v>
       </c>
       <c r="X32" t="n">
-        <v>0.9512228</v>
+        <v>0.9512472</v>
       </c>
       <c r="Y32" t="n">
         <v>57</v>
       </c>
       <c r="Z32" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33">
@@ -18292,13 +18292,13 @@
         <v>0.939068306666667</v>
       </c>
       <c r="X33" t="n">
-        <v>0.95178825</v>
+        <v>0.952748</v>
       </c>
       <c r="Y33" t="n">
         <v>40</v>
       </c>
       <c r="Z33" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34">
@@ -18372,13 +18372,13 @@
         <v>0.939611593333333</v>
       </c>
       <c r="X34" t="n">
-        <v>0.9519408</v>
+        <v>0.9527436</v>
       </c>
       <c r="Y34" t="n">
         <v>23</v>
       </c>
       <c r="Z34" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35">
@@ -18452,13 +18452,13 @@
         <v>0.921136113333333</v>
       </c>
       <c r="X35" t="n">
-        <v>0.95122185</v>
+        <v>0.9512453</v>
       </c>
       <c r="Y35" t="n">
         <v>58</v>
       </c>
       <c r="Z35" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36">
@@ -18532,13 +18532,13 @@
         <v>0.939068306666667</v>
       </c>
       <c r="X36" t="n">
-        <v>0.95178825</v>
+        <v>0.952748</v>
       </c>
       <c r="Y36" t="n">
         <v>41</v>
       </c>
       <c r="Z36" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37">
@@ -18612,13 +18612,13 @@
         <v>0.939582046666667</v>
       </c>
       <c r="X37" t="n">
-        <v>0.9519332</v>
+        <v>0.9527326</v>
       </c>
       <c r="Y37" t="n">
         <v>28</v>
       </c>
       <c r="Z37" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38">
@@ -18692,13 +18692,13 @@
         <v>0.92113264</v>
       </c>
       <c r="X38" t="n">
-        <v>0.95122185</v>
+        <v>0.9512453</v>
       </c>
       <c r="Y38" t="n">
         <v>59</v>
       </c>
       <c r="Z38" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39">
@@ -18772,13 +18772,13 @@
         <v>0.938892686666667</v>
       </c>
       <c r="X39" t="n">
-        <v>0.95178795</v>
+        <v>0.952748</v>
       </c>
       <c r="Y39" t="n">
         <v>42</v>
       </c>
       <c r="Z39" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40">
@@ -18852,13 +18852,13 @@
         <v>0.93958838</v>
       </c>
       <c r="X40" t="n">
-        <v>0.95193475</v>
+        <v>0.9527386</v>
       </c>
       <c r="Y40" t="n">
         <v>26</v>
       </c>
       <c r="Z40" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41">
@@ -18932,13 +18932,13 @@
         <v>0.92113264</v>
       </c>
       <c r="X41" t="n">
-        <v>0.95122185</v>
+        <v>0.9512453</v>
       </c>
       <c r="Y41" t="n">
         <v>60</v>
       </c>
       <c r="Z41" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42">
@@ -19012,13 +19012,13 @@
         <v>0.93889246</v>
       </c>
       <c r="X42" t="n">
-        <v>0.9517894</v>
+        <v>0.9527509</v>
       </c>
       <c r="Y42" t="n">
         <v>43</v>
       </c>
       <c r="Z42" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43">
@@ -19092,13 +19092,13 @@
         <v>0.93958536</v>
       </c>
       <c r="X43" t="n">
-        <v>0.951948</v>
+        <v>0.9527521</v>
       </c>
       <c r="Y43" t="n">
         <v>27</v>
       </c>
       <c r="Z43" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44">
@@ -19172,13 +19172,13 @@
         <v>0.921130946666667</v>
       </c>
       <c r="X44" t="n">
-        <v>0.95122185</v>
+        <v>0.9512453</v>
       </c>
       <c r="Y44" t="n">
         <v>61</v>
       </c>
       <c r="Z44" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45">
@@ -19252,13 +19252,13 @@
         <v>0.93876604</v>
       </c>
       <c r="X45" t="n">
-        <v>0.9517656</v>
+        <v>0.9527509</v>
       </c>
       <c r="Y45" t="n">
         <v>44</v>
       </c>
       <c r="Z45" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46">
@@ -19332,13 +19332,13 @@
         <v>0.939578933333333</v>
       </c>
       <c r="X46" t="n">
-        <v>0.95194845</v>
+        <v>0.9527647</v>
       </c>
       <c r="Y46" t="n">
         <v>29</v>
       </c>
       <c r="Z46" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47">
@@ -19412,13 +19412,13 @@
         <v>0.921130046666667</v>
       </c>
       <c r="X47" t="n">
-        <v>0.95122185</v>
+        <v>0.9512453</v>
       </c>
       <c r="Y47" t="n">
         <v>62</v>
       </c>
       <c r="Z47" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48">
@@ -19492,13 +19492,13 @@
         <v>0.938651173333333</v>
       </c>
       <c r="X48" t="n">
-        <v>0.9515069</v>
+        <v>0.9527304</v>
       </c>
       <c r="Y48" t="n">
         <v>46</v>
       </c>
       <c r="Z48" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49">
@@ -19572,7 +19572,7 @@
         <v>0.939562106666667</v>
       </c>
       <c r="X49" t="n">
-        <v>0.95193995</v>
+        <v>0.9527515</v>
       </c>
       <c r="Y49" t="n">
         <v>30</v>
@@ -19652,13 +19652,13 @@
         <v>0.921129186666667</v>
       </c>
       <c r="X50" t="n">
-        <v>0.95122185</v>
+        <v>0.9512453</v>
       </c>
       <c r="Y50" t="n">
         <v>63</v>
       </c>
       <c r="Z50" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51">
@@ -19732,13 +19732,13 @@
         <v>0.938651173333333</v>
       </c>
       <c r="X51" t="n">
-        <v>0.9515069</v>
+        <v>0.9527304</v>
       </c>
       <c r="Y51" t="n">
         <v>47</v>
       </c>
       <c r="Z51" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52">
@@ -19812,13 +19812,13 @@
         <v>0.939600746666667</v>
       </c>
       <c r="X52" t="n">
-        <v>0.95192875</v>
+        <v>0.9527398</v>
       </c>
       <c r="Y52" t="n">
         <v>25</v>
       </c>
       <c r="Z52" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53">
@@ -19892,13 +19892,13 @@
         <v>0.921129186666667</v>
       </c>
       <c r="X53" t="n">
-        <v>0.95122185</v>
+        <v>0.9512453</v>
       </c>
       <c r="Y53" t="n">
         <v>64</v>
       </c>
       <c r="Z53" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54">
@@ -19972,7 +19972,7 @@
         <v>0.938014006666667</v>
       </c>
       <c r="X54" t="n">
-        <v>0.9499616</v>
+        <v>0.9501794</v>
       </c>
       <c r="Y54" t="n">
         <v>49</v>
@@ -20052,13 +20052,13 @@
         <v>0.939535046666667</v>
       </c>
       <c r="X55" t="n">
-        <v>0.9519198</v>
+        <v>0.9527474</v>
       </c>
       <c r="Y55" t="n">
         <v>32</v>
       </c>
       <c r="Z55" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56">
@@ -20132,7 +20132,7 @@
         <v>0.9397669</v>
       </c>
       <c r="X56" t="n">
-        <v>0.95218035</v>
+        <v>0.9534702</v>
       </c>
       <c r="Y56" t="n">
         <v>2</v>
@@ -20212,7 +20212,7 @@
         <v>0.93973178</v>
       </c>
       <c r="X57" t="n">
-        <v>0.9521246</v>
+        <v>0.953393</v>
       </c>
       <c r="Y57" t="n">
         <v>6</v>
@@ -20292,7 +20292,7 @@
         <v>0.939765993333333</v>
       </c>
       <c r="X58" t="n">
-        <v>0.9520375</v>
+        <v>0.9532399</v>
       </c>
       <c r="Y58" t="n">
         <v>3</v>
@@ -20372,13 +20372,13 @@
         <v>0.93872802</v>
       </c>
       <c r="X59" t="n">
-        <v>0.95194185</v>
+        <v>0.9530672</v>
       </c>
       <c r="Y59" t="n">
         <v>45</v>
       </c>
       <c r="Z59" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
@@ -20452,13 +20452,13 @@
         <v>0.935270813333333</v>
       </c>
       <c r="X60" t="n">
-        <v>0.95060035</v>
+        <v>0.9514192</v>
       </c>
       <c r="Y60" t="n">
         <v>51</v>
       </c>
       <c r="Z60" t="n">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61">
@@ -20532,7 +20532,7 @@
         <v>0.892981526666667</v>
       </c>
       <c r="X61" t="n">
-        <v>0.9332019</v>
+        <v>0.9438968</v>
       </c>
       <c r="Y61" t="n">
         <v>66</v>
@@ -20612,7 +20612,7 @@
         <v>0.887410513333333</v>
       </c>
       <c r="X62" t="n">
-        <v>0.92034225</v>
+        <v>0.9368157</v>
       </c>
       <c r="Y62" t="n">
         <v>68</v>
@@ -20692,7 +20692,7 @@
         <v>0.865727346666667</v>
       </c>
       <c r="X63" t="n">
-        <v>0.88928195</v>
+        <v>0.9119229</v>
       </c>
       <c r="Y63" t="n">
         <v>70</v>
@@ -20772,7 +20772,7 @@
         <v>0.8490033</v>
       </c>
       <c r="X64" t="n">
-        <v>0.88139395</v>
+        <v>0.8959935</v>
       </c>
       <c r="Y64" t="n">
         <v>72</v>
@@ -20852,7 +20852,7 @@
         <v>0.830623386666667</v>
       </c>
       <c r="X65" t="n">
-        <v>0.8722317</v>
+        <v>0.8775393</v>
       </c>
       <c r="Y65" t="n">
         <v>74</v>
@@ -20932,7 +20932,7 @@
         <v>0.809248386666667</v>
       </c>
       <c r="X66" t="n">
-        <v>0.85740055</v>
+        <v>0.8612387</v>
       </c>
       <c r="Y66" t="n">
         <v>76</v>
@@ -21012,7 +21012,7 @@
         <v>0.789315726666667</v>
       </c>
       <c r="X67" t="n">
-        <v>0.82411605</v>
+        <v>0.8329399</v>
       </c>
       <c r="Y67" t="n">
         <v>78</v>
@@ -21092,13 +21092,13 @@
         <v>0.780629453333333</v>
       </c>
       <c r="X68" t="n">
-        <v>0.80622755</v>
+        <v>0.828007</v>
       </c>
       <c r="Y68" t="n">
         <v>80</v>
       </c>
       <c r="Z68" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69">
@@ -21172,7 +21172,7 @@
         <v>0.7720464</v>
       </c>
       <c r="X69" t="n">
-        <v>0.79811085</v>
+        <v>0.8241753</v>
       </c>
       <c r="Y69" t="n">
         <v>83</v>
@@ -21252,7 +21252,7 @@
         <v>0.76398526</v>
       </c>
       <c r="X70" t="n">
-        <v>0.79134165</v>
+        <v>0.818698</v>
       </c>
       <c r="Y70" t="n">
         <v>85</v>
@@ -21332,7 +21332,7 @@
         <v>0.75667956</v>
       </c>
       <c r="X71" t="n">
-        <v>0.78499695</v>
+        <v>0.8133143</v>
       </c>
       <c r="Y71" t="n">
         <v>86</v>
@@ -21412,7 +21412,7 @@
         <v>0.743606033333333</v>
       </c>
       <c r="X72" t="n">
-        <v>0.7549939</v>
+        <v>0.7663818</v>
       </c>
       <c r="Y72" t="n">
         <v>89</v>
@@ -21492,7 +21492,7 @@
         <v>0.736066253333333</v>
       </c>
       <c r="X73" t="n">
-        <v>0.73923355</v>
+        <v>0.7424008</v>
       </c>
       <c r="Y73" t="n">
         <v>90</v>
@@ -21572,7 +21572,7 @@
         <v>0.939761913333333</v>
       </c>
       <c r="X74" t="n">
-        <v>0.95218035</v>
+        <v>0.9534702</v>
       </c>
       <c r="Y74" t="n">
         <v>4</v>
@@ -21652,7 +21652,7 @@
         <v>0.939733193333333</v>
       </c>
       <c r="X75" t="n">
-        <v>0.9521227</v>
+        <v>0.9533892</v>
       </c>
       <c r="Y75" t="n">
         <v>5</v>
@@ -21732,7 +21732,7 @@
         <v>0.939797153333333</v>
       </c>
       <c r="X76" t="n">
-        <v>0.95203715</v>
+        <v>0.9532392</v>
       </c>
       <c r="Y76" t="n">
         <v>1</v>
@@ -21812,13 +21812,13 @@
         <v>0.938640786666667</v>
       </c>
       <c r="X77" t="n">
-        <v>0.95196625</v>
+        <v>0.9530719</v>
       </c>
       <c r="Y77" t="n">
         <v>48</v>
       </c>
       <c r="Z77" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78">
@@ -21892,13 +21892,13 @@
         <v>0.935304066666667</v>
       </c>
       <c r="X78" t="n">
-        <v>0.95069155</v>
+        <v>0.9516341</v>
       </c>
       <c r="Y78" t="n">
         <v>50</v>
       </c>
       <c r="Z78" t="n">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="79">
@@ -21972,7 +21972,7 @@
         <v>0.89321858</v>
       </c>
       <c r="X79" t="n">
-        <v>0.93370295</v>
+        <v>0.9444374</v>
       </c>
       <c r="Y79" t="n">
         <v>65</v>
@@ -22052,7 +22052,7 @@
         <v>0.888238746666667</v>
       </c>
       <c r="X80" t="n">
-        <v>0.9232742</v>
+        <v>0.9384437</v>
       </c>
       <c r="Y80" t="n">
         <v>67</v>
@@ -22132,7 +22132,7 @@
         <v>0.867037406666667</v>
       </c>
       <c r="X81" t="n">
-        <v>0.8897357</v>
+        <v>0.912434</v>
       </c>
       <c r="Y81" t="n">
         <v>69</v>
@@ -22212,7 +22212,7 @@
         <v>0.851261906666667</v>
       </c>
       <c r="X82" t="n">
-        <v>0.88306935</v>
+        <v>0.8992715</v>
       </c>
       <c r="Y82" t="n">
         <v>71</v>
@@ -22292,7 +22292,7 @@
         <v>0.83472684</v>
       </c>
       <c r="X83" t="n">
-        <v>0.8746987</v>
+        <v>0.8824599</v>
       </c>
       <c r="Y83" t="n">
         <v>73</v>
@@ -22372,7 +22372,7 @@
         <v>0.815849993333333</v>
       </c>
       <c r="X84" t="n">
-        <v>0.8642559</v>
+        <v>0.8656477</v>
       </c>
       <c r="Y84" t="n">
         <v>75</v>
@@ -22452,7 +22452,7 @@
         <v>0.79583176</v>
       </c>
       <c r="X85" t="n">
-        <v>0.8368117</v>
+        <v>0.8389632</v>
       </c>
       <c r="Y85" t="n">
         <v>77</v>
@@ -22532,7 +22532,7 @@
         <v>0.787737633333333</v>
       </c>
       <c r="X86" t="n">
-        <v>0.8207525</v>
+        <v>0.8329386</v>
       </c>
       <c r="Y86" t="n">
         <v>79</v>
@@ -22612,13 +22612,13 @@
         <v>0.78022024</v>
       </c>
       <c r="X87" t="n">
-        <v>0.8049222</v>
+        <v>0.8291</v>
       </c>
       <c r="Y87" t="n">
         <v>81</v>
       </c>
       <c r="Z87" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88">
@@ -22692,7 +22692,7 @@
         <v>0.772912786666667</v>
       </c>
       <c r="X88" t="n">
-        <v>0.7993639</v>
+        <v>0.825815</v>
       </c>
       <c r="Y88" t="n">
         <v>82</v>
@@ -22772,7 +22772,7 @@
         <v>0.765639906666667</v>
       </c>
       <c r="X89" t="n">
-        <v>0.7935364</v>
+        <v>0.8214329</v>
       </c>
       <c r="Y89" t="n">
         <v>84</v>
@@ -22852,7 +22852,7 @@
         <v>0.75251056</v>
       </c>
       <c r="X90" t="n">
-        <v>0.7711813</v>
+        <v>0.789852</v>
       </c>
       <c r="Y90" t="n">
         <v>87</v>
@@ -22932,7 +22932,7 @@
         <v>0.746826006666667</v>
       </c>
       <c r="X91" t="n">
-        <v>0.76123405</v>
+        <v>0.7756421</v>
       </c>
       <c r="Y91" t="n">
         <v>88</v>
@@ -23106,13 +23106,13 @@
         <v>0.846901733333333</v>
       </c>
       <c r="X2" t="n">
-        <v>0.9493822</v>
+        <v>0.9515944</v>
       </c>
       <c r="Y2" t="n">
         <v>57</v>
       </c>
       <c r="Z2" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -23186,13 +23186,13 @@
         <v>0.846901733333333</v>
       </c>
       <c r="X3" t="n">
-        <v>0.9493822</v>
+        <v>0.9515944</v>
       </c>
       <c r="Y3" t="n">
         <v>58</v>
       </c>
       <c r="Z3" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -23266,13 +23266,13 @@
         <v>0.846901733333333</v>
       </c>
       <c r="X4" t="n">
-        <v>0.9493822</v>
+        <v>0.9515944</v>
       </c>
       <c r="Y4" t="n">
         <v>59</v>
       </c>
       <c r="Z4" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -23346,13 +23346,13 @@
         <v>0.84688422</v>
       </c>
       <c r="X5" t="n">
-        <v>0.9493822</v>
+        <v>0.9515944</v>
       </c>
       <c r="Y5" t="n">
         <v>66</v>
       </c>
       <c r="Z5" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
@@ -23426,13 +23426,13 @@
         <v>0.846901733333333</v>
       </c>
       <c r="X6" t="n">
-        <v>0.9493822</v>
+        <v>0.9515944</v>
       </c>
       <c r="Y6" t="n">
         <v>60</v>
       </c>
       <c r="Z6" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -23506,13 +23506,13 @@
         <v>0.84688422</v>
       </c>
       <c r="X7" t="n">
-        <v>0.9493822</v>
+        <v>0.9515944</v>
       </c>
       <c r="Y7" t="n">
         <v>67</v>
       </c>
       <c r="Z7" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
@@ -23586,7 +23586,7 @@
         <v>0.846840626666667</v>
       </c>
       <c r="X8" t="n">
-        <v>0.9492801</v>
+        <v>0.9515944</v>
       </c>
       <c r="Y8" t="n">
         <v>75</v>
@@ -23666,13 +23666,13 @@
         <v>0.84684662</v>
       </c>
       <c r="X9" t="n">
-        <v>0.9490924</v>
+        <v>0.9515944</v>
       </c>
       <c r="Y9" t="n">
         <v>74</v>
       </c>
       <c r="Z9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10">
@@ -23746,13 +23746,13 @@
         <v>0.846889246666667</v>
       </c>
       <c r="X10" t="n">
-        <v>0.9493822</v>
+        <v>0.9515944</v>
       </c>
       <c r="Y10" t="n">
         <v>64</v>
       </c>
       <c r="Z10" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
@@ -23826,13 +23826,13 @@
         <v>0.84685736</v>
       </c>
       <c r="X11" t="n">
-        <v>0.9492801</v>
+        <v>0.9515944</v>
       </c>
       <c r="Y11" t="n">
         <v>72</v>
       </c>
       <c r="Z11" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
@@ -23906,13 +23906,13 @@
         <v>0.846797833333333</v>
       </c>
       <c r="X12" t="n">
-        <v>0.9490924</v>
+        <v>0.9515944</v>
       </c>
       <c r="Y12" t="n">
         <v>76</v>
       </c>
       <c r="Z12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
@@ -23986,13 +23986,13 @@
         <v>0.846889246666667</v>
       </c>
       <c r="X13" t="n">
-        <v>0.9493822</v>
+        <v>0.9515944</v>
       </c>
       <c r="Y13" t="n">
         <v>65</v>
       </c>
       <c r="Z13" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
@@ -24066,13 +24066,13 @@
         <v>0.84685736</v>
       </c>
       <c r="X14" t="n">
-        <v>0.9492801</v>
+        <v>0.9515944</v>
       </c>
       <c r="Y14" t="n">
         <v>73</v>
       </c>
       <c r="Z14" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
@@ -24146,13 +24146,13 @@
         <v>0.846581473333333</v>
       </c>
       <c r="X15" t="n">
-        <v>0.9489262</v>
+        <v>0.9514551</v>
       </c>
       <c r="Y15" t="n">
         <v>78</v>
       </c>
       <c r="Z15" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16">
@@ -24226,13 +24226,13 @@
         <v>0.84689166</v>
       </c>
       <c r="X16" t="n">
-        <v>0.949189</v>
+        <v>0.9515944</v>
       </c>
       <c r="Y16" t="n">
         <v>63</v>
       </c>
       <c r="Z16" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
@@ -24306,13 +24306,13 @@
         <v>0.897669146666667</v>
       </c>
       <c r="X17" t="n">
-        <v>0.94645805</v>
+        <v>0.9513269</v>
       </c>
       <c r="Y17" t="n">
         <v>1</v>
       </c>
       <c r="Z17" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18">
@@ -24386,13 +24386,13 @@
         <v>0.846662873333333</v>
       </c>
       <c r="X18" t="n">
-        <v>0.9489262</v>
+        <v>0.9514551</v>
       </c>
       <c r="Y18" t="n">
         <v>77</v>
       </c>
       <c r="Z18" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19">
@@ -24466,13 +24466,13 @@
         <v>0.84694056</v>
       </c>
       <c r="X19" t="n">
-        <v>0.9493767</v>
+        <v>0.9517876</v>
       </c>
       <c r="Y19" t="n">
         <v>52</v>
       </c>
       <c r="Z19" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -24546,13 +24546,13 @@
         <v>0.897580513333333</v>
       </c>
       <c r="X20" t="n">
-        <v>0.94608215</v>
+        <v>0.9510693</v>
       </c>
       <c r="Y20" t="n">
         <v>2</v>
       </c>
       <c r="Z20" t="n">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21">
@@ -24626,13 +24626,13 @@
         <v>0.84640196</v>
       </c>
       <c r="X21" t="n">
-        <v>0.94696935</v>
+        <v>0.9475414</v>
       </c>
       <c r="Y21" t="n">
         <v>79</v>
       </c>
       <c r="Z21" t="n">
-        <v>32</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22">
@@ -24706,13 +24706,13 @@
         <v>0.84699676</v>
       </c>
       <c r="X22" t="n">
-        <v>0.9494788</v>
+        <v>0.9517876</v>
       </c>
       <c r="Y22" t="n">
         <v>50</v>
       </c>
       <c r="Z22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -24786,13 +24786,13 @@
         <v>0.897580513333333</v>
       </c>
       <c r="X23" t="n">
-        <v>0.94608215</v>
+        <v>0.9510693</v>
       </c>
       <c r="Y23" t="n">
         <v>3</v>
       </c>
       <c r="Z23" t="n">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24">
@@ -24866,13 +24866,13 @@
         <v>0.84640196</v>
       </c>
       <c r="X24" t="n">
-        <v>0.94696935</v>
+        <v>0.9475414</v>
       </c>
       <c r="Y24" t="n">
         <v>80</v>
       </c>
       <c r="Z24" t="n">
-        <v>33</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25">
@@ -24946,13 +24946,13 @@
         <v>0.846920953333333</v>
       </c>
       <c r="X25" t="n">
-        <v>0.9493767</v>
+        <v>0.9517876</v>
       </c>
       <c r="Y25" t="n">
         <v>53</v>
       </c>
       <c r="Z25" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
@@ -25026,13 +25026,13 @@
         <v>0.897555626666667</v>
       </c>
       <c r="X26" t="n">
-        <v>0.94608215</v>
+        <v>0.9510693</v>
       </c>
       <c r="Y26" t="n">
         <v>4</v>
       </c>
       <c r="Z26" t="n">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27">
@@ -25106,13 +25106,13 @@
         <v>0.84640196</v>
       </c>
       <c r="X27" t="n">
-        <v>0.94696935</v>
+        <v>0.9475414</v>
       </c>
       <c r="Y27" t="n">
         <v>81</v>
       </c>
       <c r="Z27" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28">
@@ -25186,13 +25186,13 @@
         <v>0.846983146666667</v>
       </c>
       <c r="X28" t="n">
-        <v>0.9493767</v>
+        <v>0.9517876</v>
       </c>
       <c r="Y28" t="n">
         <v>51</v>
       </c>
       <c r="Z28" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -25266,13 +25266,13 @@
         <v>0.897514433333333</v>
       </c>
       <c r="X29" t="n">
-        <v>0.9459588</v>
+        <v>0.9510693</v>
       </c>
       <c r="Y29" t="n">
         <v>7</v>
       </c>
       <c r="Z29" t="n">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30">
@@ -25346,13 +25346,13 @@
         <v>0.84640196</v>
       </c>
       <c r="X30" t="n">
-        <v>0.94696935</v>
+        <v>0.9475414</v>
       </c>
       <c r="Y30" t="n">
         <v>82</v>
       </c>
       <c r="Z30" t="n">
-        <v>35</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31">
@@ -25426,13 +25426,13 @@
         <v>0.846920953333333</v>
       </c>
       <c r="X31" t="n">
-        <v>0.9493767</v>
+        <v>0.9517876</v>
       </c>
       <c r="Y31" t="n">
         <v>54</v>
       </c>
       <c r="Z31" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
@@ -25506,13 +25506,13 @@
         <v>0.897514433333333</v>
       </c>
       <c r="X32" t="n">
-        <v>0.9459588</v>
+        <v>0.9510693</v>
       </c>
       <c r="Y32" t="n">
         <v>8</v>
       </c>
       <c r="Z32" t="n">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33">
@@ -25586,13 +25586,13 @@
         <v>0.84640196</v>
       </c>
       <c r="X33" t="n">
-        <v>0.94696935</v>
+        <v>0.9475414</v>
       </c>
       <c r="Y33" t="n">
         <v>83</v>
       </c>
       <c r="Z33" t="n">
-        <v>36</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34">
@@ -25666,13 +25666,13 @@
         <v>0.84690344</v>
       </c>
       <c r="X34" t="n">
-        <v>0.9493767</v>
+        <v>0.9517876</v>
       </c>
       <c r="Y34" t="n">
         <v>55</v>
       </c>
       <c r="Z34" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
@@ -25746,13 +25746,13 @@
         <v>0.897514433333333</v>
       </c>
       <c r="X35" t="n">
-        <v>0.9459588</v>
+        <v>0.9510693</v>
       </c>
       <c r="Y35" t="n">
         <v>9</v>
       </c>
       <c r="Z35" t="n">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36">
@@ -25826,13 +25826,13 @@
         <v>0.84640196</v>
       </c>
       <c r="X36" t="n">
-        <v>0.94696935</v>
+        <v>0.9475414</v>
       </c>
       <c r="Y36" t="n">
         <v>84</v>
       </c>
       <c r="Z36" t="n">
-        <v>37</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37">
@@ -25906,13 +25906,13 @@
         <v>0.846900333333333</v>
       </c>
       <c r="X37" t="n">
-        <v>0.9493767</v>
+        <v>0.9517876</v>
       </c>
       <c r="Y37" t="n">
         <v>61</v>
       </c>
       <c r="Z37" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38">
@@ -25986,13 +25986,13 @@
         <v>0.897315706666667</v>
       </c>
       <c r="X38" t="n">
-        <v>0.94446835</v>
+        <v>0.9502981</v>
       </c>
       <c r="Y38" t="n">
         <v>10</v>
       </c>
       <c r="Z38" t="n">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39">
@@ -26066,13 +26066,13 @@
         <v>0.846173633333333</v>
       </c>
       <c r="X39" t="n">
-        <v>0.94648395</v>
+        <v>0.9465706</v>
       </c>
       <c r="Y39" t="n">
         <v>85</v>
       </c>
       <c r="Z39" t="n">
-        <v>46</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40">
@@ -26146,13 +26146,13 @@
         <v>0.846868473333333</v>
       </c>
       <c r="X40" t="n">
-        <v>0.9493436</v>
+        <v>0.9517214</v>
       </c>
       <c r="Y40" t="n">
         <v>68</v>
       </c>
       <c r="Z40" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41">
@@ -26226,13 +26226,13 @@
         <v>0.897315706666667</v>
       </c>
       <c r="X41" t="n">
-        <v>0.94446835</v>
+        <v>0.9502981</v>
       </c>
       <c r="Y41" t="n">
         <v>11</v>
       </c>
       <c r="Z41" t="n">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42">
@@ -26306,13 +26306,13 @@
         <v>0.846173633333333</v>
       </c>
       <c r="X42" t="n">
-        <v>0.94648395</v>
+        <v>0.9465706</v>
       </c>
       <c r="Y42" t="n">
         <v>86</v>
       </c>
       <c r="Z42" t="n">
-        <v>47</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43">
@@ -26386,13 +26386,13 @@
         <v>0.846902426666667</v>
       </c>
       <c r="X43" t="n">
-        <v>0.9493767</v>
+        <v>0.9517876</v>
       </c>
       <c r="Y43" t="n">
         <v>56</v>
       </c>
       <c r="Z43" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44">
@@ -26466,13 +26466,13 @@
         <v>0.897299413333333</v>
       </c>
       <c r="X44" t="n">
-        <v>0.94434615</v>
+        <v>0.9502981</v>
       </c>
       <c r="Y44" t="n">
         <v>12</v>
       </c>
       <c r="Z44" t="n">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45">
@@ -26546,13 +26546,13 @@
         <v>0.84611492</v>
       </c>
       <c r="X45" t="n">
-        <v>0.94619415</v>
+        <v>0.9465706</v>
       </c>
       <c r="Y45" t="n">
         <v>87</v>
       </c>
       <c r="Z45" t="n">
-        <v>55</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46">
@@ -26626,13 +26626,13 @@
         <v>0.846900333333333</v>
       </c>
       <c r="X46" t="n">
-        <v>0.9493767</v>
+        <v>0.9517876</v>
       </c>
       <c r="Y46" t="n">
         <v>62</v>
       </c>
       <c r="Z46" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47">
@@ -26706,13 +26706,13 @@
         <v>0.8972529</v>
       </c>
       <c r="X47" t="n">
-        <v>0.94409585</v>
+        <v>0.9500416</v>
       </c>
       <c r="Y47" t="n">
         <v>13</v>
       </c>
       <c r="Z47" t="n">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48">
@@ -26786,13 +26786,13 @@
         <v>0.84590472</v>
       </c>
       <c r="X48" t="n">
-        <v>0.94506665</v>
+        <v>0.9456679</v>
       </c>
       <c r="Y48" t="n">
         <v>88</v>
       </c>
       <c r="Z48" t="n">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49">
@@ -26866,13 +26866,13 @@
         <v>0.84686636</v>
       </c>
       <c r="X49" t="n">
-        <v>0.9493767</v>
+        <v>0.9517876</v>
       </c>
       <c r="Y49" t="n">
         <v>69</v>
       </c>
       <c r="Z49" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50">
@@ -26946,13 +26946,13 @@
         <v>0.8972529</v>
       </c>
       <c r="X50" t="n">
-        <v>0.94409585</v>
+        <v>0.9500416</v>
       </c>
       <c r="Y50" t="n">
         <v>14</v>
       </c>
       <c r="Z50" t="n">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51">
@@ -27026,13 +27026,13 @@
         <v>0.84590472</v>
       </c>
       <c r="X51" t="n">
-        <v>0.94506665</v>
+        <v>0.9456679</v>
       </c>
       <c r="Y51" t="n">
         <v>89</v>
       </c>
       <c r="Z51" t="n">
-        <v>71</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52">
@@ -27106,13 +27106,13 @@
         <v>0.846865366666667</v>
       </c>
       <c r="X52" t="n">
-        <v>0.9493436</v>
+        <v>0.9517214</v>
       </c>
       <c r="Y52" t="n">
         <v>71</v>
       </c>
       <c r="Z52" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53">
@@ -27186,13 +27186,13 @@
         <v>0.8972529</v>
       </c>
       <c r="X53" t="n">
-        <v>0.94409585</v>
+        <v>0.9500416</v>
       </c>
       <c r="Y53" t="n">
         <v>15</v>
       </c>
       <c r="Z53" t="n">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54">
@@ -27266,7 +27266,7 @@
         <v>0.845646666666667</v>
       </c>
       <c r="X54" t="n">
-        <v>0.9436648</v>
+        <v>0.9438303</v>
       </c>
       <c r="Y54" t="n">
         <v>90</v>
@@ -27346,13 +27346,13 @@
         <v>0.84686636</v>
       </c>
       <c r="X55" t="n">
-        <v>0.9493767</v>
+        <v>0.9517876</v>
       </c>
       <c r="Y55" t="n">
         <v>70</v>
       </c>
       <c r="Z55" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56">
@@ -27426,13 +27426,13 @@
         <v>0.897550306666667</v>
       </c>
       <c r="X56" t="n">
-        <v>0.9476312</v>
+        <v>0.9523597</v>
       </c>
       <c r="Y56" t="n">
         <v>5</v>
       </c>
       <c r="Z56" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -27506,13 +27506,13 @@
         <v>0.89710244</v>
       </c>
       <c r="X57" t="n">
-        <v>0.94692855</v>
+        <v>0.9515847</v>
       </c>
       <c r="Y57" t="n">
         <v>17</v>
       </c>
       <c r="Z57" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58">
@@ -27586,13 +27586,13 @@
         <v>0.896869653333333</v>
       </c>
       <c r="X58" t="n">
-        <v>0.94671065</v>
+        <v>0.9515847</v>
       </c>
       <c r="Y58" t="n">
         <v>19</v>
       </c>
       <c r="Z58" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59">
@@ -27666,13 +27666,13 @@
         <v>0.8966078</v>
       </c>
       <c r="X59" t="n">
-        <v>0.94671065</v>
+        <v>0.9515847</v>
       </c>
       <c r="Y59" t="n">
         <v>21</v>
       </c>
       <c r="Z59" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60">
@@ -27746,13 +27746,13 @@
         <v>0.896405806666667</v>
       </c>
       <c r="X60" t="n">
-        <v>0.94671065</v>
+        <v>0.9515847</v>
       </c>
       <c r="Y60" t="n">
         <v>24</v>
       </c>
       <c r="Z60" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61">
@@ -27826,13 +27826,13 @@
         <v>0.89633214</v>
       </c>
       <c r="X61" t="n">
-        <v>0.94645805</v>
+        <v>0.9513269</v>
       </c>
       <c r="Y61" t="n">
         <v>26</v>
       </c>
       <c r="Z61" t="n">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62">
@@ -27906,13 +27906,13 @@
         <v>0.89616354</v>
       </c>
       <c r="X62" t="n">
-        <v>0.94633445</v>
+        <v>0.9513269</v>
       </c>
       <c r="Y62" t="n">
         <v>28</v>
       </c>
       <c r="Z62" t="n">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63">
@@ -27986,13 +27986,13 @@
         <v>0.895893373333333</v>
       </c>
       <c r="X63" t="n">
-        <v>0.94621095</v>
+        <v>0.9513269</v>
       </c>
       <c r="Y63" t="n">
         <v>30</v>
       </c>
       <c r="Z63" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64">
@@ -28066,13 +28066,13 @@
         <v>0.895739366666667</v>
       </c>
       <c r="X64" t="n">
-        <v>0.9459644</v>
+        <v>0.9513269</v>
       </c>
       <c r="Y64" t="n">
         <v>33</v>
       </c>
       <c r="Z64" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65">
@@ -28146,13 +28146,13 @@
         <v>0.895632573333333</v>
       </c>
       <c r="X65" t="n">
-        <v>0.9459644</v>
+        <v>0.9513269</v>
       </c>
       <c r="Y65" t="n">
         <v>35</v>
       </c>
       <c r="Z65" t="n">
-        <v>66</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66">
@@ -28226,13 +28226,13 @@
         <v>0.895622053333333</v>
       </c>
       <c r="X66" t="n">
-        <v>0.9460876</v>
+        <v>0.9513269</v>
       </c>
       <c r="Y66" t="n">
         <v>36</v>
       </c>
       <c r="Z66" t="n">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67">
@@ -28306,13 +28306,13 @@
         <v>0.89554136</v>
       </c>
       <c r="X67" t="n">
-        <v>0.9460876</v>
+        <v>0.9513269</v>
       </c>
       <c r="Y67" t="n">
         <v>37</v>
       </c>
       <c r="Z67" t="n">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="68">
@@ -28386,13 +28386,13 @@
         <v>0.89532254</v>
       </c>
       <c r="X68" t="n">
-        <v>0.9448678</v>
+        <v>0.9502981</v>
       </c>
       <c r="Y68" t="n">
         <v>43</v>
       </c>
       <c r="Z68" t="n">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69">
@@ -28466,13 +28466,13 @@
         <v>0.895283033333333</v>
       </c>
       <c r="X69" t="n">
-        <v>0.9448678</v>
+        <v>0.9502981</v>
       </c>
       <c r="Y69" t="n">
         <v>45</v>
       </c>
       <c r="Z69" t="n">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70">
@@ -28546,13 +28546,13 @@
         <v>0.895228693333333</v>
       </c>
       <c r="X70" t="n">
-        <v>0.9446232</v>
+        <v>0.9502981</v>
       </c>
       <c r="Y70" t="n">
         <v>46</v>
       </c>
       <c r="Z70" t="n">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71">
@@ -28626,13 +28626,13 @@
         <v>0.89511218</v>
       </c>
       <c r="X71" t="n">
-        <v>0.943879</v>
+        <v>0.9497853</v>
       </c>
       <c r="Y71" t="n">
         <v>47</v>
       </c>
       <c r="Z71" t="n">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72">
@@ -28706,13 +28706,13 @@
         <v>0.895062253333333</v>
       </c>
       <c r="X72" t="n">
-        <v>0.943879</v>
+        <v>0.9497853</v>
       </c>
       <c r="Y72" t="n">
         <v>48</v>
       </c>
       <c r="Z72" t="n">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73">
@@ -28786,13 +28786,13 @@
         <v>0.895062253333333</v>
       </c>
       <c r="X73" t="n">
-        <v>0.943879</v>
+        <v>0.9497853</v>
       </c>
       <c r="Y73" t="n">
         <v>49</v>
       </c>
       <c r="Z73" t="n">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74">
@@ -28866,13 +28866,13 @@
         <v>0.897527806666667</v>
       </c>
       <c r="X74" t="n">
-        <v>0.9480065</v>
+        <v>0.9523597</v>
       </c>
       <c r="Y74" t="n">
         <v>6</v>
       </c>
       <c r="Z74" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
@@ -28946,13 +28946,13 @@
         <v>0.897224553333333</v>
       </c>
       <c r="X75" t="n">
-        <v>0.94692855</v>
+        <v>0.9515847</v>
       </c>
       <c r="Y75" t="n">
         <v>16</v>
       </c>
       <c r="Z75" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76">
@@ -29026,13 +29026,13 @@
         <v>0.897016366666667</v>
       </c>
       <c r="X76" t="n">
-        <v>0.94683445</v>
+        <v>0.9515847</v>
       </c>
       <c r="Y76" t="n">
         <v>18</v>
       </c>
       <c r="Z76" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77">
@@ -29106,13 +29106,13 @@
         <v>0.896805073333333</v>
       </c>
       <c r="X77" t="n">
-        <v>0.94671065</v>
+        <v>0.9515847</v>
       </c>
       <c r="Y77" t="n">
         <v>20</v>
       </c>
       <c r="Z77" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="78">
@@ -29186,13 +29186,13 @@
         <v>0.896584306666667</v>
       </c>
       <c r="X78" t="n">
-        <v>0.94671065</v>
+        <v>0.9515847</v>
       </c>
       <c r="Y78" t="n">
         <v>22</v>
       </c>
       <c r="Z78" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="79">
@@ -29266,13 +29266,13 @@
         <v>0.896580606666667</v>
       </c>
       <c r="X79" t="n">
-        <v>0.94645805</v>
+        <v>0.9513269</v>
       </c>
       <c r="Y79" t="n">
         <v>23</v>
       </c>
       <c r="Z79" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="80">
@@ -29346,13 +29346,13 @@
         <v>0.896402766666667</v>
       </c>
       <c r="X80" t="n">
-        <v>0.94620565</v>
+        <v>0.9510693</v>
       </c>
       <c r="Y80" t="n">
         <v>25</v>
       </c>
       <c r="Z80" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="81">
@@ -29426,13 +29426,13 @@
         <v>0.89619942</v>
       </c>
       <c r="X81" t="n">
-        <v>0.94621095</v>
+        <v>0.9513269</v>
       </c>
       <c r="Y81" t="n">
         <v>27</v>
       </c>
       <c r="Z81" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="82">
@@ -29506,13 +29506,13 @@
         <v>0.8959838</v>
       </c>
       <c r="X82" t="n">
-        <v>0.9460876</v>
+        <v>0.9513269</v>
       </c>
       <c r="Y82" t="n">
         <v>29</v>
       </c>
       <c r="Z82" t="n">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="83">
@@ -29586,13 +29586,13 @@
         <v>0.895876926666667</v>
       </c>
       <c r="X83" t="n">
-        <v>0.9460876</v>
+        <v>0.9513269</v>
       </c>
       <c r="Y83" t="n">
         <v>31</v>
       </c>
       <c r="Z83" t="n">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="84">
@@ -29666,13 +29666,13 @@
         <v>0.89580984</v>
       </c>
       <c r="X84" t="n">
-        <v>0.9460876</v>
+        <v>0.9513269</v>
       </c>
       <c r="Y84" t="n">
         <v>32</v>
       </c>
       <c r="Z84" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="85">
@@ -29746,13 +29746,13 @@
         <v>0.895703213333333</v>
       </c>
       <c r="X85" t="n">
-        <v>0.9460876</v>
+        <v>0.9513269</v>
       </c>
       <c r="Y85" t="n">
         <v>34</v>
       </c>
       <c r="Z85" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="86">
@@ -29826,13 +29826,13 @@
         <v>0.89548724</v>
       </c>
       <c r="X86" t="n">
-        <v>0.9447454</v>
+        <v>0.9502981</v>
       </c>
       <c r="Y86" t="n">
         <v>38</v>
       </c>
       <c r="Z86" t="n">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="87">
@@ -29906,13 +29906,13 @@
         <v>0.89548724</v>
       </c>
       <c r="X87" t="n">
-        <v>0.9447454</v>
+        <v>0.9502981</v>
       </c>
       <c r="Y87" t="n">
         <v>39</v>
       </c>
       <c r="Z87" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="88">
@@ -29986,13 +29986,13 @@
         <v>0.89535706</v>
       </c>
       <c r="X88" t="n">
-        <v>0.9442241</v>
+        <v>0.9502981</v>
       </c>
       <c r="Y88" t="n">
         <v>40</v>
       </c>
       <c r="Z88" t="n">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="89">
@@ -30066,13 +30066,13 @@
         <v>0.89533828</v>
       </c>
       <c r="X89" t="n">
-        <v>0.9441289</v>
+        <v>0.9500416</v>
       </c>
       <c r="Y89" t="n">
         <v>41</v>
       </c>
       <c r="Z89" t="n">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="90">
@@ -30146,13 +30146,13 @@
         <v>0.895325546666667</v>
       </c>
       <c r="X90" t="n">
-        <v>0.9441289</v>
+        <v>0.9500416</v>
       </c>
       <c r="Y90" t="n">
         <v>42</v>
       </c>
       <c r="Z90" t="n">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="91">
@@ -30226,13 +30226,13 @@
         <v>0.895309173333333</v>
       </c>
       <c r="X91" t="n">
-        <v>0.9441289</v>
+        <v>0.9500416</v>
       </c>
       <c r="Y91" t="n">
         <v>44</v>
       </c>
       <c r="Z91" t="n">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -30400,13 +30400,13 @@
         <v>0.73308352</v>
       </c>
       <c r="X2" t="n">
-        <v>0.9324849</v>
+        <v>0.9360189</v>
       </c>
       <c r="Y2" t="n">
         <v>63</v>
       </c>
       <c r="Z2" t="n">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -30480,13 +30480,13 @@
         <v>0.73308352</v>
       </c>
       <c r="X3" t="n">
-        <v>0.9324849</v>
+        <v>0.9360189</v>
       </c>
       <c r="Y3" t="n">
         <v>64</v>
       </c>
       <c r="Z3" t="n">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
@@ -30560,13 +30560,13 @@
         <v>0.73308352</v>
       </c>
       <c r="X4" t="n">
-        <v>0.9324849</v>
+        <v>0.9360189</v>
       </c>
       <c r="Y4" t="n">
         <v>65</v>
       </c>
       <c r="Z4" t="n">
-        <v>65</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
@@ -30640,13 +30640,13 @@
         <v>0.73307332</v>
       </c>
       <c r="X5" t="n">
-        <v>0.9324849</v>
+        <v>0.9360189</v>
       </c>
       <c r="Y5" t="n">
         <v>71</v>
       </c>
       <c r="Z5" t="n">
-        <v>66</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
@@ -30720,13 +30720,13 @@
         <v>0.73308352</v>
       </c>
       <c r="X6" t="n">
-        <v>0.9324849</v>
+        <v>0.9360189</v>
       </c>
       <c r="Y6" t="n">
         <v>66</v>
       </c>
       <c r="Z6" t="n">
-        <v>67</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
@@ -30800,13 +30800,13 @@
         <v>0.73307332</v>
       </c>
       <c r="X7" t="n">
-        <v>0.9324849</v>
+        <v>0.9360189</v>
       </c>
       <c r="Y7" t="n">
         <v>72</v>
       </c>
       <c r="Z7" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
@@ -30880,13 +30880,13 @@
         <v>0.73304914</v>
       </c>
       <c r="X8" t="n">
-        <v>0.93243365</v>
+        <v>0.9360189</v>
       </c>
       <c r="Y8" t="n">
         <v>73</v>
       </c>
       <c r="Z8" t="n">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9">
@@ -30960,13 +30960,13 @@
         <v>0.732948793333333</v>
       </c>
       <c r="X9" t="n">
-        <v>0.9320465</v>
+        <v>0.9360189</v>
       </c>
       <c r="Y9" t="n">
         <v>75</v>
       </c>
       <c r="Z9" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10">
@@ -31040,13 +31040,13 @@
         <v>0.73307638</v>
       </c>
       <c r="X10" t="n">
-        <v>0.9324849</v>
+        <v>0.9360189</v>
       </c>
       <c r="Y10" t="n">
         <v>69</v>
       </c>
       <c r="Z10" t="n">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11">
@@ -31120,13 +31120,13 @@
         <v>0.733078533333333</v>
       </c>
       <c r="X11" t="n">
-        <v>0.93243365</v>
+        <v>0.9360189</v>
       </c>
       <c r="Y11" t="n">
         <v>67</v>
       </c>
       <c r="Z11" t="n">
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12">
@@ -31200,13 +31200,13 @@
         <v>0.732851826666667</v>
       </c>
       <c r="X12" t="n">
-        <v>0.9320465</v>
+        <v>0.9360189</v>
       </c>
       <c r="Y12" t="n">
         <v>76</v>
       </c>
       <c r="Z12" t="n">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
@@ -31280,13 +31280,13 @@
         <v>0.73307638</v>
       </c>
       <c r="X13" t="n">
-        <v>0.9324849</v>
+        <v>0.9360189</v>
       </c>
       <c r="Y13" t="n">
         <v>70</v>
       </c>
       <c r="Z13" t="n">
-        <v>70</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14">
@@ -31360,13 +31360,13 @@
         <v>0.733078533333333</v>
       </c>
       <c r="X14" t="n">
-        <v>0.93243365</v>
+        <v>0.9360189</v>
       </c>
       <c r="Y14" t="n">
         <v>68</v>
       </c>
       <c r="Z14" t="n">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15">
@@ -31440,13 +31440,13 @@
         <v>0.732490673333333</v>
       </c>
       <c r="X15" t="n">
-        <v>0.93190025</v>
+        <v>0.9360189</v>
       </c>
       <c r="Y15" t="n">
         <v>78</v>
       </c>
       <c r="Z15" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16">
@@ -31520,13 +31520,13 @@
         <v>0.733033313333333</v>
       </c>
       <c r="X16" t="n">
-        <v>0.93219265</v>
+        <v>0.9360189</v>
       </c>
       <c r="Y16" t="n">
         <v>74</v>
       </c>
       <c r="Z16" t="n">
-        <v>74</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17">
@@ -31600,13 +31600,13 @@
         <v>0.849313466666667</v>
       </c>
       <c r="X17" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y17" t="n">
         <v>22</v>
       </c>
       <c r="Z17" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -31680,13 +31680,13 @@
         <v>0.732703893333333</v>
       </c>
       <c r="X18" t="n">
-        <v>0.9320451</v>
+        <v>0.9363086</v>
       </c>
       <c r="Y18" t="n">
         <v>77</v>
       </c>
       <c r="Z18" t="n">
-        <v>77</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19">
@@ -31760,7 +31760,7 @@
         <v>0.73325424</v>
       </c>
       <c r="X19" t="n">
-        <v>0.9325785</v>
+        <v>0.9363086</v>
       </c>
       <c r="Y19" t="n">
         <v>52</v>
@@ -31840,13 +31840,13 @@
         <v>0.849262666666667</v>
       </c>
       <c r="X20" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y20" t="n">
         <v>25</v>
       </c>
       <c r="Z20" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -31920,13 +31920,13 @@
         <v>0.73233696</v>
       </c>
       <c r="X21" t="n">
-        <v>0.9320451</v>
+        <v>0.9363086</v>
       </c>
       <c r="Y21" t="n">
         <v>79</v>
       </c>
       <c r="Z21" t="n">
-        <v>78</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22">
@@ -32000,13 +32000,13 @@
         <v>0.733285853333333</v>
       </c>
       <c r="X22" t="n">
-        <v>0.93262975</v>
+        <v>0.9363086</v>
       </c>
       <c r="Y22" t="n">
         <v>50</v>
       </c>
       <c r="Z22" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23">
@@ -32080,13 +32080,13 @@
         <v>0.849262666666667</v>
       </c>
       <c r="X23" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y23" t="n">
         <v>26</v>
       </c>
       <c r="Z23" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -32160,13 +32160,13 @@
         <v>0.73233696</v>
       </c>
       <c r="X24" t="n">
-        <v>0.9320451</v>
+        <v>0.9363086</v>
       </c>
       <c r="Y24" t="n">
         <v>80</v>
       </c>
       <c r="Z24" t="n">
-        <v>79</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25">
@@ -32240,13 +32240,13 @@
         <v>0.7332444</v>
       </c>
       <c r="X25" t="n">
-        <v>0.9325785</v>
+        <v>0.9363086</v>
       </c>
       <c r="Y25" t="n">
         <v>56</v>
       </c>
       <c r="Z25" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26">
@@ -32320,13 +32320,13 @@
         <v>0.849256</v>
       </c>
       <c r="X26" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y26" t="n">
         <v>27</v>
       </c>
       <c r="Z26" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -32400,13 +32400,13 @@
         <v>0.73233696</v>
       </c>
       <c r="X27" t="n">
-        <v>0.9320451</v>
+        <v>0.9363086</v>
       </c>
       <c r="Y27" t="n">
         <v>81</v>
       </c>
       <c r="Z27" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28">
@@ -32480,13 +32480,13 @@
         <v>0.73327902</v>
       </c>
       <c r="X28" t="n">
-        <v>0.9325785</v>
+        <v>0.9363086</v>
       </c>
       <c r="Y28" t="n">
         <v>51</v>
       </c>
       <c r="Z28" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29">
@@ -32560,13 +32560,13 @@
         <v>0.849242533333333</v>
       </c>
       <c r="X29" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y29" t="n">
         <v>29</v>
       </c>
       <c r="Z29" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30">
@@ -32640,13 +32640,13 @@
         <v>0.73233696</v>
       </c>
       <c r="X30" t="n">
-        <v>0.9320451</v>
+        <v>0.9363086</v>
       </c>
       <c r="Y30" t="n">
         <v>82</v>
       </c>
       <c r="Z30" t="n">
-        <v>81</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31">
@@ -32720,13 +32720,13 @@
         <v>0.7332444</v>
       </c>
       <c r="X31" t="n">
-        <v>0.9325785</v>
+        <v>0.9363086</v>
       </c>
       <c r="Y31" t="n">
         <v>57</v>
       </c>
       <c r="Z31" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32">
@@ -32800,13 +32800,13 @@
         <v>0.849242533333333</v>
       </c>
       <c r="X32" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y32" t="n">
         <v>30</v>
       </c>
       <c r="Z32" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
@@ -32880,13 +32880,13 @@
         <v>0.73233696</v>
       </c>
       <c r="X33" t="n">
-        <v>0.9320451</v>
+        <v>0.9363086</v>
       </c>
       <c r="Y33" t="n">
         <v>83</v>
       </c>
       <c r="Z33" t="n">
-        <v>82</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34">
@@ -32960,13 +32960,13 @@
         <v>0.7332342</v>
       </c>
       <c r="X34" t="n">
-        <v>0.9325785</v>
+        <v>0.9363086</v>
       </c>
       <c r="Y34" t="n">
         <v>58</v>
       </c>
       <c r="Z34" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35">
@@ -33040,13 +33040,13 @@
         <v>0.849242533333333</v>
       </c>
       <c r="X35" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y35" t="n">
         <v>31</v>
       </c>
       <c r="Z35" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36">
@@ -33120,13 +33120,13 @@
         <v>0.73233696</v>
       </c>
       <c r="X36" t="n">
-        <v>0.9320451</v>
+        <v>0.9363086</v>
       </c>
       <c r="Y36" t="n">
         <v>84</v>
       </c>
       <c r="Z36" t="n">
-        <v>83</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37">
@@ -33200,13 +33200,13 @@
         <v>0.733252873333333</v>
       </c>
       <c r="X37" t="n">
-        <v>0.9325785</v>
+        <v>0.9363086</v>
       </c>
       <c r="Y37" t="n">
         <v>53</v>
       </c>
       <c r="Z37" t="n">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38">
@@ -33280,13 +33280,13 @@
         <v>0.849118526666667</v>
       </c>
       <c r="X38" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y38" t="n">
         <v>34</v>
       </c>
       <c r="Z38" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39">
@@ -33360,13 +33360,13 @@
         <v>0.731911266666667</v>
       </c>
       <c r="X39" t="n">
-        <v>0.9320451</v>
+        <v>0.9363086</v>
       </c>
       <c r="Y39" t="n">
         <v>85</v>
       </c>
       <c r="Z39" t="n">
-        <v>84</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40">
@@ -33440,13 +33440,13 @@
         <v>0.733213786666667</v>
       </c>
       <c r="X40" t="n">
-        <v>0.9325785</v>
+        <v>0.9363086</v>
       </c>
       <c r="Y40" t="n">
         <v>62</v>
       </c>
       <c r="Z40" t="n">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41">
@@ -33520,13 +33520,13 @@
         <v>0.849118526666667</v>
       </c>
       <c r="X41" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y41" t="n">
         <v>35</v>
       </c>
       <c r="Z41" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42">
@@ -33600,13 +33600,13 @@
         <v>0.731911266666667</v>
       </c>
       <c r="X42" t="n">
-        <v>0.9320451</v>
+        <v>0.9363086</v>
       </c>
       <c r="Y42" t="n">
         <v>86</v>
       </c>
       <c r="Z42" t="n">
-        <v>85</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43">
@@ -33680,13 +33680,13 @@
         <v>0.733252513333333</v>
       </c>
       <c r="X43" t="n">
-        <v>0.9325785</v>
+        <v>0.9363086</v>
       </c>
       <c r="Y43" t="n">
         <v>55</v>
       </c>
       <c r="Z43" t="n">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44">
@@ -33760,13 +33760,13 @@
         <v>0.849108166666667</v>
       </c>
       <c r="X44" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y44" t="n">
         <v>36</v>
       </c>
       <c r="Z44" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
@@ -33840,13 +33840,13 @@
         <v>0.731824713333333</v>
       </c>
       <c r="X45" t="n">
-        <v>0.9316062</v>
+        <v>0.9363086</v>
       </c>
       <c r="Y45" t="n">
         <v>87</v>
       </c>
       <c r="Z45" t="n">
-        <v>87</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46">
@@ -33920,13 +33920,13 @@
         <v>0.733252873333333</v>
       </c>
       <c r="X46" t="n">
-        <v>0.9325785</v>
+        <v>0.9363086</v>
       </c>
       <c r="Y46" t="n">
         <v>54</v>
       </c>
       <c r="Z46" t="n">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47">
@@ -34000,13 +34000,13 @@
         <v>0.849080526666667</v>
       </c>
       <c r="X47" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y47" t="n">
         <v>37</v>
       </c>
       <c r="Z47" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48">
@@ -34080,13 +34080,13 @@
         <v>0.731499146666667</v>
       </c>
       <c r="X48" t="n">
-        <v>0.93056745</v>
+        <v>0.9362828</v>
       </c>
       <c r="Y48" t="n">
         <v>88</v>
       </c>
       <c r="Z48" t="n">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49">
@@ -34160,13 +34160,13 @@
         <v>0.733214146666667</v>
       </c>
       <c r="X49" t="n">
-        <v>0.9325785</v>
+        <v>0.9363086</v>
       </c>
       <c r="Y49" t="n">
         <v>60</v>
       </c>
       <c r="Z49" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50">
@@ -34240,13 +34240,13 @@
         <v>0.849080526666667</v>
       </c>
       <c r="X50" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y50" t="n">
         <v>38</v>
       </c>
       <c r="Z50" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
@@ -34320,13 +34320,13 @@
         <v>0.731499146666667</v>
       </c>
       <c r="X51" t="n">
-        <v>0.93056745</v>
+        <v>0.9362828</v>
       </c>
       <c r="Y51" t="n">
         <v>89</v>
       </c>
       <c r="Z51" t="n">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52">
@@ -34400,13 +34400,13 @@
         <v>0.73323246</v>
       </c>
       <c r="X52" t="n">
-        <v>0.9325785</v>
+        <v>0.9363086</v>
       </c>
       <c r="Y52" t="n">
         <v>59</v>
       </c>
       <c r="Z52" t="n">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53">
@@ -34480,13 +34480,13 @@
         <v>0.849080526666667</v>
       </c>
       <c r="X53" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y53" t="n">
         <v>39</v>
       </c>
       <c r="Z53" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54">
@@ -34560,7 +34560,7 @@
         <v>0.731093293333333</v>
       </c>
       <c r="X54" t="n">
-        <v>0.9296125</v>
+        <v>0.9358411</v>
       </c>
       <c r="Y54" t="n">
         <v>90</v>
@@ -34640,13 +34640,13 @@
         <v>0.733214146666667</v>
       </c>
       <c r="X55" t="n">
-        <v>0.9325785</v>
+        <v>0.9363086</v>
       </c>
       <c r="Y55" t="n">
         <v>61</v>
       </c>
       <c r="Z55" t="n">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56">
@@ -34720,13 +34720,13 @@
         <v>0.84867018</v>
       </c>
       <c r="X56" t="n">
-        <v>0.93994885</v>
+        <v>0.9418525</v>
       </c>
       <c r="Y56" t="n">
         <v>48</v>
       </c>
       <c r="Z56" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57">
@@ -34800,13 +34800,13 @@
         <v>0.848932513333333</v>
       </c>
       <c r="X57" t="n">
-        <v>0.9400605</v>
+        <v>0.9417866</v>
       </c>
       <c r="Y57" t="n">
         <v>46</v>
       </c>
       <c r="Z57" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58">
@@ -34880,13 +34880,13 @@
         <v>0.84905706</v>
       </c>
       <c r="X58" t="n">
-        <v>0.94033935</v>
+        <v>0.9421589</v>
       </c>
       <c r="Y58" t="n">
         <v>40</v>
       </c>
       <c r="Z58" t="n">
-        <v>40</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -34960,13 +34960,13 @@
         <v>0.849035173333333</v>
       </c>
       <c r="X59" t="n">
-        <v>0.94033935</v>
+        <v>0.9421589</v>
       </c>
       <c r="Y59" t="n">
         <v>42</v>
       </c>
       <c r="Z59" t="n">
-        <v>41</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60">
@@ -35040,13 +35040,13 @@
         <v>0.848986753333333</v>
       </c>
       <c r="X60" t="n">
-        <v>0.94028755</v>
+        <v>0.9421589</v>
       </c>
       <c r="Y60" t="n">
         <v>45</v>
       </c>
       <c r="Z60" t="n">
-        <v>43</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
@@ -35120,13 +35120,13 @@
         <v>0.849636333333333</v>
       </c>
       <c r="X61" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y61" t="n">
         <v>2</v>
       </c>
       <c r="Z61" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62">
@@ -35200,13 +35200,13 @@
         <v>0.849578586666667</v>
       </c>
       <c r="X62" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y62" t="n">
         <v>4</v>
       </c>
       <c r="Z62" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63">
@@ -35280,13 +35280,13 @@
         <v>0.849519546666667</v>
       </c>
       <c r="X63" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y63" t="n">
         <v>6</v>
       </c>
       <c r="Z63" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64">
@@ -35360,13 +35360,13 @@
         <v>0.849471046666667</v>
       </c>
       <c r="X64" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y64" t="n">
         <v>10</v>
       </c>
       <c r="Z64" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65">
@@ -35440,13 +35440,13 @@
         <v>0.849442026666667</v>
       </c>
       <c r="X65" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y65" t="n">
         <v>13</v>
       </c>
       <c r="Z65" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66">
@@ -35520,13 +35520,13 @@
         <v>0.84944686</v>
       </c>
       <c r="X66" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y66" t="n">
         <v>12</v>
       </c>
       <c r="Z66" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67">
@@ -35600,13 +35600,13 @@
         <v>0.849427453333333</v>
       </c>
       <c r="X67" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y67" t="n">
         <v>14</v>
       </c>
       <c r="Z67" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68">
@@ -35680,13 +35680,13 @@
         <v>0.84932558</v>
       </c>
       <c r="X68" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y68" t="n">
         <v>17</v>
       </c>
       <c r="Z68" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69">
@@ -35760,13 +35760,13 @@
         <v>0.84931718</v>
       </c>
       <c r="X69" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y69" t="n">
         <v>20</v>
       </c>
       <c r="Z69" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70">
@@ -35840,13 +35840,13 @@
         <v>0.849289493333333</v>
       </c>
       <c r="X70" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y70" t="n">
         <v>23</v>
       </c>
       <c r="Z70" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71">
@@ -35920,13 +35920,13 @@
         <v>0.8492529</v>
       </c>
       <c r="X71" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y71" t="n">
         <v>28</v>
       </c>
       <c r="Z71" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72">
@@ -36000,13 +36000,13 @@
         <v>0.849240653333333</v>
       </c>
       <c r="X72" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y72" t="n">
         <v>32</v>
       </c>
       <c r="Z72" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73">
@@ -36080,13 +36080,13 @@
         <v>0.849240653333333</v>
       </c>
       <c r="X73" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y73" t="n">
         <v>33</v>
       </c>
       <c r="Z73" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74">
@@ -36160,13 +36160,13 @@
         <v>0.84846428</v>
       </c>
       <c r="X74" t="n">
-        <v>0.93994885</v>
+        <v>0.9418525</v>
       </c>
       <c r="Y74" t="n">
         <v>49</v>
       </c>
       <c r="Z74" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="75">
@@ -36240,13 +36240,13 @@
         <v>0.84888514</v>
       </c>
       <c r="X75" t="n">
-        <v>0.9400605</v>
+        <v>0.9417866</v>
       </c>
       <c r="Y75" t="n">
         <v>47</v>
       </c>
       <c r="Z75" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="76">
@@ -36320,13 +36320,13 @@
         <v>0.849034006666667</v>
       </c>
       <c r="X76" t="n">
-        <v>0.94022785</v>
+        <v>0.9422249</v>
       </c>
       <c r="Y76" t="n">
         <v>43</v>
       </c>
       <c r="Z76" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -36400,13 +36400,13 @@
         <v>0.849048226666667</v>
       </c>
       <c r="X77" t="n">
-        <v>0.94033935</v>
+        <v>0.9421589</v>
       </c>
       <c r="Y77" t="n">
         <v>41</v>
       </c>
       <c r="Z77" t="n">
-        <v>42</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78">
@@ -36480,13 +36480,13 @@
         <v>0.849022413333333</v>
       </c>
       <c r="X78" t="n">
-        <v>0.94028755</v>
+        <v>0.9421589</v>
       </c>
       <c r="Y78" t="n">
         <v>44</v>
       </c>
       <c r="Z78" t="n">
-        <v>44</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79">
@@ -36560,13 +36560,13 @@
         <v>0.849676013333333</v>
       </c>
       <c r="X79" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y79" t="n">
         <v>1</v>
       </c>
       <c r="Z79" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80">
@@ -36640,13 +36640,13 @@
         <v>0.849631573333333</v>
       </c>
       <c r="X80" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y80" t="n">
         <v>3</v>
       </c>
       <c r="Z80" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81">
@@ -36720,13 +36720,13 @@
         <v>0.84957772</v>
       </c>
       <c r="X81" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y81" t="n">
         <v>5</v>
       </c>
       <c r="Z81" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82">
@@ -36800,13 +36800,13 @@
         <v>0.849517753333333</v>
       </c>
       <c r="X82" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y82" t="n">
         <v>7</v>
       </c>
       <c r="Z82" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="83">
@@ -36880,13 +36880,13 @@
         <v>0.8495092</v>
       </c>
       <c r="X83" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y83" t="n">
         <v>8</v>
       </c>
       <c r="Z83" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="84">
@@ -36960,13 +36960,13 @@
         <v>0.849495293333333</v>
       </c>
       <c r="X84" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y84" t="n">
         <v>9</v>
       </c>
       <c r="Z84" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="85">
@@ -37040,13 +37040,13 @@
         <v>0.849470126666667</v>
       </c>
       <c r="X85" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y85" t="n">
         <v>11</v>
       </c>
       <c r="Z85" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="86">
@@ -37120,13 +37120,13 @@
         <v>0.849367813333333</v>
       </c>
       <c r="X86" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y86" t="n">
         <v>15</v>
       </c>
       <c r="Z86" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87">
@@ -37200,13 +37200,13 @@
         <v>0.849367813333333</v>
       </c>
       <c r="X87" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y87" t="n">
         <v>16</v>
       </c>
       <c r="Z87" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="88">
@@ -37280,13 +37280,13 @@
         <v>0.849284326666667</v>
       </c>
       <c r="X88" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y88" t="n">
         <v>24</v>
       </c>
       <c r="Z88" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="89">
@@ -37360,13 +37360,13 @@
         <v>0.849322653333333</v>
       </c>
       <c r="X89" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y89" t="n">
         <v>18</v>
       </c>
       <c r="Z89" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="90">
@@ -37440,13 +37440,13 @@
         <v>0.84931978</v>
       </c>
       <c r="X90" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y90" t="n">
         <v>19</v>
       </c>
       <c r="Z90" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="91">
@@ -37520,13 +37520,13 @@
         <v>0.84931526</v>
       </c>
       <c r="X91" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y91" t="n">
         <v>21</v>
       </c>
       <c r="Z91" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -37694,13 +37694,13 @@
         <v>0.886472473333333</v>
       </c>
       <c r="X2" t="n">
-        <v>0.9480065</v>
+        <v>0.9523597</v>
       </c>
       <c r="Y2" t="n">
         <v>78</v>
       </c>
       <c r="Z2" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -37774,13 +37774,13 @@
         <v>0.886472473333333</v>
       </c>
       <c r="X3" t="n">
-        <v>0.9480065</v>
+        <v>0.9523597</v>
       </c>
       <c r="Y3" t="n">
         <v>79</v>
       </c>
       <c r="Z3" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
@@ -37854,13 +37854,13 @@
         <v>0.886472473333333</v>
       </c>
       <c r="X4" t="n">
-        <v>0.9480065</v>
+        <v>0.9523597</v>
       </c>
       <c r="Y4" t="n">
         <v>80</v>
       </c>
       <c r="Z4" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -37934,13 +37934,13 @@
         <v>0.886446373333333</v>
       </c>
       <c r="X5" t="n">
-        <v>0.94788125</v>
+        <v>0.9523597</v>
       </c>
       <c r="Y5" t="n">
         <v>83</v>
       </c>
       <c r="Z5" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
@@ -38014,13 +38014,13 @@
         <v>0.886455773333333</v>
       </c>
       <c r="X6" t="n">
-        <v>0.94788125</v>
+        <v>0.9523597</v>
       </c>
       <c r="Y6" t="n">
         <v>81</v>
       </c>
       <c r="Z6" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
@@ -38094,13 +38094,13 @@
         <v>0.886455773333333</v>
       </c>
       <c r="X7" t="n">
-        <v>0.94788125</v>
+        <v>0.9523597</v>
       </c>
       <c r="Y7" t="n">
         <v>82</v>
       </c>
       <c r="Z7" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
@@ -38174,13 +38174,13 @@
         <v>0.886373473333333</v>
       </c>
       <c r="X8" t="n">
-        <v>0.9477562</v>
+        <v>0.9523597</v>
       </c>
       <c r="Y8" t="n">
         <v>87</v>
       </c>
       <c r="Z8" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
@@ -38254,13 +38254,13 @@
         <v>0.8865145</v>
       </c>
       <c r="X9" t="n">
-        <v>0.9483867</v>
+        <v>0.9526186</v>
       </c>
       <c r="Y9" t="n">
         <v>75</v>
       </c>
       <c r="Z9" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -38334,13 +38334,13 @@
         <v>0.886429893333333</v>
       </c>
       <c r="X10" t="n">
-        <v>0.94788125</v>
+        <v>0.9523597</v>
       </c>
       <c r="Y10" t="n">
         <v>85</v>
       </c>
       <c r="Z10" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
@@ -38414,13 +38414,13 @@
         <v>0.886373473333333</v>
       </c>
       <c r="X11" t="n">
-        <v>0.9477562</v>
+        <v>0.9523597</v>
       </c>
       <c r="Y11" t="n">
         <v>88</v>
       </c>
       <c r="Z11" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12">
@@ -38494,13 +38494,13 @@
         <v>0.88651436</v>
       </c>
       <c r="X12" t="n">
-        <v>0.9485123</v>
+        <v>0.9526186</v>
       </c>
       <c r="Y12" t="n">
         <v>76</v>
       </c>
       <c r="Z12" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -38574,13 +38574,13 @@
         <v>0.886429893333333</v>
       </c>
       <c r="X13" t="n">
-        <v>0.94788125</v>
+        <v>0.9523597</v>
       </c>
       <c r="Y13" t="n">
         <v>86</v>
       </c>
       <c r="Z13" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
@@ -38654,13 +38654,13 @@
         <v>0.886340946666667</v>
       </c>
       <c r="X14" t="n">
-        <v>0.9477562</v>
+        <v>0.9523597</v>
       </c>
       <c r="Y14" t="n">
         <v>89</v>
       </c>
       <c r="Z14" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
@@ -38734,13 +38734,13 @@
         <v>0.886446253333333</v>
       </c>
       <c r="X15" t="n">
-        <v>0.94834265</v>
+        <v>0.9529473</v>
       </c>
       <c r="Y15" t="n">
         <v>84</v>
       </c>
       <c r="Z15" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -38814,13 +38814,13 @@
         <v>0.886483253333333</v>
       </c>
       <c r="X16" t="n">
-        <v>0.94813595</v>
+        <v>0.9526186</v>
       </c>
       <c r="Y16" t="n">
         <v>77</v>
       </c>
       <c r="Z16" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
@@ -38894,13 +38894,13 @@
         <v>0.897080026666667</v>
       </c>
       <c r="X17" t="n">
-        <v>0.94645805</v>
+        <v>0.9513269</v>
       </c>
       <c r="Y17" t="n">
         <v>1</v>
       </c>
       <c r="Z17" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18">
@@ -38974,13 +38974,13 @@
         <v>0.886753006666667</v>
       </c>
       <c r="X18" t="n">
-        <v>0.94843755</v>
+        <v>0.9531371</v>
       </c>
       <c r="Y18" t="n">
         <v>51</v>
       </c>
       <c r="Z18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -39054,13 +39054,13 @@
         <v>0.886736993333333</v>
       </c>
       <c r="X19" t="n">
-        <v>0.9480065</v>
+        <v>0.9523597</v>
       </c>
       <c r="Y19" t="n">
         <v>52</v>
       </c>
       <c r="Z19" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
@@ -39134,13 +39134,13 @@
         <v>0.896828933333333</v>
       </c>
       <c r="X20" t="n">
-        <v>0.94497625</v>
+        <v>0.9510693</v>
       </c>
       <c r="Y20" t="n">
         <v>4</v>
       </c>
       <c r="Z20" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21">
@@ -39214,13 +39214,13 @@
         <v>0.886691713333333</v>
       </c>
       <c r="X21" t="n">
-        <v>0.94797785</v>
+        <v>0.9531371</v>
       </c>
       <c r="Y21" t="n">
         <v>56</v>
       </c>
       <c r="Z21" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -39294,13 +39294,13 @@
         <v>0.886768053333333</v>
       </c>
       <c r="X22" t="n">
-        <v>0.94826125</v>
+        <v>0.9526186</v>
       </c>
       <c r="Y22" t="n">
         <v>50</v>
       </c>
       <c r="Z22" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
@@ -39374,13 +39374,13 @@
         <v>0.896828933333333</v>
       </c>
       <c r="X23" t="n">
-        <v>0.94497625</v>
+        <v>0.9510693</v>
       </c>
       <c r="Y23" t="n">
         <v>5</v>
       </c>
       <c r="Z23" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24">
@@ -39454,13 +39454,13 @@
         <v>0.886691713333333</v>
       </c>
       <c r="X24" t="n">
-        <v>0.94797785</v>
+        <v>0.9531371</v>
       </c>
       <c r="Y24" t="n">
         <v>57</v>
       </c>
       <c r="Z24" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -39534,13 +39534,13 @@
         <v>0.886681353333333</v>
       </c>
       <c r="X25" t="n">
-        <v>0.9480065</v>
+        <v>0.9523597</v>
       </c>
       <c r="Y25" t="n">
         <v>64</v>
       </c>
       <c r="Z25" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
@@ -39614,13 +39614,13 @@
         <v>0.896787906666667</v>
       </c>
       <c r="X26" t="n">
-        <v>0.94485395</v>
+        <v>0.9510693</v>
       </c>
       <c r="Y26" t="n">
         <v>6</v>
       </c>
       <c r="Z26" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27">
@@ -39694,13 +39694,13 @@
         <v>0.886691713333333</v>
       </c>
       <c r="X27" t="n">
-        <v>0.94797785</v>
+        <v>0.9531371</v>
       </c>
       <c r="Y27" t="n">
         <v>58</v>
       </c>
       <c r="Z27" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -39774,13 +39774,13 @@
         <v>0.886733886666667</v>
       </c>
       <c r="X28" t="n">
-        <v>0.9481318</v>
+        <v>0.9523597</v>
       </c>
       <c r="Y28" t="n">
         <v>55</v>
       </c>
       <c r="Z28" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29">
@@ -39854,13 +39854,13 @@
         <v>0.896771613333333</v>
       </c>
       <c r="X29" t="n">
-        <v>0.94473175</v>
+        <v>0.9510693</v>
       </c>
       <c r="Y29" t="n">
         <v>7</v>
       </c>
       <c r="Z29" t="n">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30">
@@ -39934,13 +39934,13 @@
         <v>0.886691713333333</v>
       </c>
       <c r="X30" t="n">
-        <v>0.94797785</v>
+        <v>0.9531371</v>
       </c>
       <c r="Y30" t="n">
         <v>59</v>
       </c>
       <c r="Z30" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -40014,13 +40014,13 @@
         <v>0.886684666666667</v>
       </c>
       <c r="X31" t="n">
-        <v>0.9480065</v>
+        <v>0.9523597</v>
       </c>
       <c r="Y31" t="n">
         <v>62</v>
       </c>
       <c r="Z31" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32">
@@ -40094,13 +40094,13 @@
         <v>0.896771613333333</v>
       </c>
       <c r="X32" t="n">
-        <v>0.94473175</v>
+        <v>0.9510693</v>
       </c>
       <c r="Y32" t="n">
         <v>8</v>
       </c>
       <c r="Z32" t="n">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33">
@@ -40174,13 +40174,13 @@
         <v>0.886691713333333</v>
       </c>
       <c r="X33" t="n">
-        <v>0.94797785</v>
+        <v>0.9531371</v>
       </c>
       <c r="Y33" t="n">
         <v>60</v>
       </c>
       <c r="Z33" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34">
@@ -40254,13 +40254,13 @@
         <v>0.886684666666667</v>
       </c>
       <c r="X34" t="n">
-        <v>0.9480065</v>
+        <v>0.9523597</v>
       </c>
       <c r="Y34" t="n">
         <v>63</v>
       </c>
       <c r="Z34" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35">
@@ -40334,13 +40334,13 @@
         <v>0.896771613333333</v>
       </c>
       <c r="X35" t="n">
-        <v>0.94473175</v>
+        <v>0.9510693</v>
       </c>
       <c r="Y35" t="n">
         <v>9</v>
       </c>
       <c r="Z35" t="n">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36">
@@ -40414,13 +40414,13 @@
         <v>0.886691713333333</v>
       </c>
       <c r="X36" t="n">
-        <v>0.94797785</v>
+        <v>0.9531371</v>
       </c>
       <c r="Y36" t="n">
         <v>61</v>
       </c>
       <c r="Z36" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
@@ -40494,7 +40494,7 @@
         <v>0.886641893333333</v>
       </c>
       <c r="X37" t="n">
-        <v>0.9477562</v>
+        <v>0.9523597</v>
       </c>
       <c r="Y37" t="n">
         <v>69</v>
@@ -40574,13 +40574,13 @@
         <v>0.896678446666667</v>
       </c>
       <c r="X38" t="n">
-        <v>0.9442179</v>
+        <v>0.9500416</v>
       </c>
       <c r="Y38" t="n">
         <v>11</v>
       </c>
       <c r="Z38" t="n">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39">
@@ -40654,13 +40654,13 @@
         <v>0.886736226666667</v>
       </c>
       <c r="X39" t="n">
-        <v>0.94845705</v>
+        <v>0.9531371</v>
       </c>
       <c r="Y39" t="n">
         <v>53</v>
       </c>
       <c r="Z39" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
@@ -40734,7 +40734,7 @@
         <v>0.886651293333333</v>
       </c>
       <c r="X40" t="n">
-        <v>0.9477562</v>
+        <v>0.9523597</v>
       </c>
       <c r="Y40" t="n">
         <v>66</v>
@@ -40814,13 +40814,13 @@
         <v>0.896678446666667</v>
       </c>
       <c r="X41" t="n">
-        <v>0.9442179</v>
+        <v>0.9500416</v>
       </c>
       <c r="Y41" t="n">
         <v>12</v>
       </c>
       <c r="Z41" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42">
@@ -40894,13 +40894,13 @@
         <v>0.886736226666667</v>
       </c>
       <c r="X42" t="n">
-        <v>0.94845705</v>
+        <v>0.9531371</v>
       </c>
       <c r="Y42" t="n">
         <v>54</v>
       </c>
       <c r="Z42" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43">
@@ -40974,7 +40974,7 @@
         <v>0.886651293333333</v>
       </c>
       <c r="X43" t="n">
-        <v>0.9477562</v>
+        <v>0.9523597</v>
       </c>
       <c r="Y43" t="n">
         <v>67</v>
@@ -41054,13 +41054,13 @@
         <v>0.89664536</v>
       </c>
       <c r="X44" t="n">
-        <v>0.94409585</v>
+        <v>0.9500416</v>
       </c>
       <c r="Y44" t="n">
         <v>13</v>
       </c>
       <c r="Z44" t="n">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45">
@@ -41134,13 +41134,13 @@
         <v>0.886656913333333</v>
       </c>
       <c r="X45" t="n">
-        <v>0.94815295</v>
+        <v>0.9528347</v>
       </c>
       <c r="Y45" t="n">
         <v>65</v>
       </c>
       <c r="Z45" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46">
@@ -41214,7 +41214,7 @@
         <v>0.886651293333333</v>
       </c>
       <c r="X46" t="n">
-        <v>0.9477562</v>
+        <v>0.9523597</v>
       </c>
       <c r="Y46" t="n">
         <v>68</v>
@@ -41294,13 +41294,13 @@
         <v>0.896603226666667</v>
       </c>
       <c r="X47" t="n">
-        <v>0.94384575</v>
+        <v>0.9497853</v>
       </c>
       <c r="Y47" t="n">
         <v>14</v>
       </c>
       <c r="Z47" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48">
@@ -41374,13 +41374,13 @@
         <v>0.886614893333333</v>
       </c>
       <c r="X48" t="n">
-        <v>0.94815295</v>
+        <v>0.9528347</v>
       </c>
       <c r="Y48" t="n">
         <v>71</v>
       </c>
       <c r="Z48" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49">
@@ -41454,13 +41454,13 @@
         <v>0.886608073333333</v>
       </c>
       <c r="X49" t="n">
-        <v>0.9476312</v>
+        <v>0.9523597</v>
       </c>
       <c r="Y49" t="n">
         <v>73</v>
       </c>
       <c r="Z49" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50">
@@ -41534,13 +41534,13 @@
         <v>0.896603226666667</v>
       </c>
       <c r="X50" t="n">
-        <v>0.94384575</v>
+        <v>0.9497853</v>
       </c>
       <c r="Y50" t="n">
         <v>15</v>
       </c>
       <c r="Z50" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51">
@@ -41614,13 +41614,13 @@
         <v>0.886614893333333</v>
       </c>
       <c r="X51" t="n">
-        <v>0.94815295</v>
+        <v>0.9528347</v>
       </c>
       <c r="Y51" t="n">
         <v>72</v>
       </c>
       <c r="Z51" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52">
@@ -41694,13 +41694,13 @@
         <v>0.886608073333333</v>
       </c>
       <c r="X52" t="n">
-        <v>0.9476312</v>
+        <v>0.9523597</v>
       </c>
       <c r="Y52" t="n">
         <v>74</v>
       </c>
       <c r="Z52" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53">
@@ -41774,13 +41774,13 @@
         <v>0.896603226666667</v>
       </c>
       <c r="X53" t="n">
-        <v>0.94384575</v>
+        <v>0.9497853</v>
       </c>
       <c r="Y53" t="n">
         <v>16</v>
       </c>
       <c r="Z53" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54">
@@ -41854,13 +41854,13 @@
         <v>0.88605448</v>
       </c>
       <c r="X54" t="n">
-        <v>0.9440325</v>
+        <v>0.9510197</v>
       </c>
       <c r="Y54" t="n">
         <v>90</v>
       </c>
       <c r="Z54" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55">
@@ -41934,13 +41934,13 @@
         <v>0.886638146666667</v>
       </c>
       <c r="X55" t="n">
-        <v>0.9477562</v>
+        <v>0.9523597</v>
       </c>
       <c r="Y55" t="n">
         <v>70</v>
       </c>
       <c r="Z55" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56">
@@ -42014,13 +42014,13 @@
         <v>0.89690558</v>
       </c>
       <c r="X56" t="n">
-        <v>0.9469584</v>
+        <v>0.9515847</v>
       </c>
       <c r="Y56" t="n">
         <v>3</v>
       </c>
       <c r="Z56" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57">
@@ -42094,13 +42094,13 @@
         <v>0.896537066666667</v>
       </c>
       <c r="X57" t="n">
-        <v>0.94683445</v>
+        <v>0.9515847</v>
       </c>
       <c r="Y57" t="n">
         <v>17</v>
       </c>
       <c r="Z57" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58">
@@ -42174,13 +42174,13 @@
         <v>0.896192466666667</v>
       </c>
       <c r="X58" t="n">
-        <v>0.94671065</v>
+        <v>0.9515847</v>
       </c>
       <c r="Y58" t="n">
         <v>20</v>
       </c>
       <c r="Z58" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59">
@@ -42254,13 +42254,13 @@
         <v>0.895948893333333</v>
       </c>
       <c r="X59" t="n">
-        <v>0.94658175</v>
+        <v>0.9513269</v>
       </c>
       <c r="Y59" t="n">
         <v>23</v>
       </c>
       <c r="Z59" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60">
@@ -42334,13 +42334,13 @@
         <v>0.895797313333333</v>
       </c>
       <c r="X60" t="n">
-        <v>0.94658175</v>
+        <v>0.9513269</v>
       </c>
       <c r="Y60" t="n">
         <v>25</v>
       </c>
       <c r="Z60" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61">
@@ -42414,13 +42414,13 @@
         <v>0.895765346666667</v>
       </c>
       <c r="X61" t="n">
-        <v>0.94645805</v>
+        <v>0.9513269</v>
       </c>
       <c r="Y61" t="n">
         <v>26</v>
       </c>
       <c r="Z61" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62">
@@ -42494,13 +42494,13 @@
         <v>0.89554294</v>
       </c>
       <c r="X62" t="n">
-        <v>0.9455895</v>
+        <v>0.9510693</v>
       </c>
       <c r="Y62" t="n">
         <v>28</v>
       </c>
       <c r="Z62" t="n">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63">
@@ -42574,13 +42574,13 @@
         <v>0.895479413333333</v>
       </c>
       <c r="X63" t="n">
-        <v>0.9457183</v>
+        <v>0.9513269</v>
       </c>
       <c r="Y63" t="n">
         <v>31</v>
       </c>
       <c r="Z63" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64">
@@ -42654,13 +42654,13 @@
         <v>0.89536596</v>
       </c>
       <c r="X64" t="n">
-        <v>0.9455954</v>
+        <v>0.9513269</v>
       </c>
       <c r="Y64" t="n">
         <v>34</v>
       </c>
       <c r="Z64" t="n">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="65">
@@ -42734,13 +42734,13 @@
         <v>0.895280213333333</v>
       </c>
       <c r="X65" t="n">
-        <v>0.94547265</v>
+        <v>0.9513269</v>
       </c>
       <c r="Y65" t="n">
         <v>35</v>
       </c>
       <c r="Z65" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66">
@@ -42814,13 +42814,13 @@
         <v>0.895248106666667</v>
       </c>
       <c r="X66" t="n">
-        <v>0.94547265</v>
+        <v>0.9513269</v>
       </c>
       <c r="Y66" t="n">
         <v>36</v>
       </c>
       <c r="Z66" t="n">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67">
@@ -42894,13 +42894,13 @@
         <v>0.89523908</v>
       </c>
       <c r="X67" t="n">
-        <v>0.94547265</v>
+        <v>0.9513269</v>
       </c>
       <c r="Y67" t="n">
         <v>37</v>
       </c>
       <c r="Z67" t="n">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68">
@@ -42974,13 +42974,13 @@
         <v>0.895003693333333</v>
       </c>
       <c r="X68" t="n">
-        <v>0.9442508</v>
+        <v>0.9500416</v>
       </c>
       <c r="Y68" t="n">
         <v>42</v>
       </c>
       <c r="Z68" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69">
@@ -43054,13 +43054,13 @@
         <v>0.894980653333333</v>
       </c>
       <c r="X69" t="n">
-        <v>0.9442508</v>
+        <v>0.9500416</v>
       </c>
       <c r="Y69" t="n">
         <v>45</v>
       </c>
       <c r="Z69" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70">
@@ -43134,13 +43134,13 @@
         <v>0.89496664</v>
       </c>
       <c r="X70" t="n">
-        <v>0.9442508</v>
+        <v>0.9500416</v>
       </c>
       <c r="Y70" t="n">
         <v>46</v>
       </c>
       <c r="Z70" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71">
@@ -43214,13 +43214,13 @@
         <v>0.89485936</v>
       </c>
       <c r="X71" t="n">
-        <v>0.94350775</v>
+        <v>0.9495293</v>
       </c>
       <c r="Y71" t="n">
         <v>47</v>
       </c>
       <c r="Z71" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72">
@@ -43294,13 +43294,13 @@
         <v>0.894849813333333</v>
       </c>
       <c r="X72" t="n">
-        <v>0.94363575</v>
+        <v>0.9497853</v>
       </c>
       <c r="Y72" t="n">
         <v>48</v>
       </c>
       <c r="Z72" t="n">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73">
@@ -43374,13 +43374,13 @@
         <v>0.894833493333333</v>
       </c>
       <c r="X73" t="n">
-        <v>0.94363575</v>
+        <v>0.9497853</v>
       </c>
       <c r="Y73" t="n">
         <v>49</v>
       </c>
       <c r="Z73" t="n">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74">
@@ -43454,13 +43454,13 @@
         <v>0.897019486666667</v>
       </c>
       <c r="X74" t="n">
-        <v>0.9470825</v>
+        <v>0.9515847</v>
       </c>
       <c r="Y74" t="n">
         <v>2</v>
       </c>
       <c r="Z74" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75">
@@ -43534,13 +43534,13 @@
         <v>0.89669694</v>
       </c>
       <c r="X75" t="n">
-        <v>0.94683445</v>
+        <v>0.9515847</v>
       </c>
       <c r="Y75" t="n">
         <v>10</v>
       </c>
       <c r="Z75" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76">
@@ -43614,7 +43614,7 @@
         <v>0.89645716</v>
       </c>
       <c r="X76" t="n">
-        <v>0.94671065</v>
+        <v>0.9515847</v>
       </c>
       <c r="Y76" t="n">
         <v>18</v>
@@ -43694,7 +43694,7 @@
         <v>0.89624428</v>
       </c>
       <c r="X77" t="n">
-        <v>0.94671065</v>
+        <v>0.9515847</v>
       </c>
       <c r="Y77" t="n">
         <v>19</v>
@@ -43774,13 +43774,13 @@
         <v>0.896060186666667</v>
       </c>
       <c r="X78" t="n">
-        <v>0.94658175</v>
+        <v>0.9513269</v>
       </c>
       <c r="Y78" t="n">
         <v>21</v>
       </c>
       <c r="Z78" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="79">
@@ -43854,13 +43854,13 @@
         <v>0.896027153333333</v>
       </c>
       <c r="X79" t="n">
-        <v>0.94645805</v>
+        <v>0.9513269</v>
       </c>
       <c r="Y79" t="n">
         <v>22</v>
       </c>
       <c r="Z79" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="80">
@@ -43934,13 +43934,13 @@
         <v>0.89584692</v>
       </c>
       <c r="X80" t="n">
-        <v>0.9459588</v>
+        <v>0.9510693</v>
       </c>
       <c r="Y80" t="n">
         <v>24</v>
       </c>
       <c r="Z80" t="n">
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
     <row r="81">
@@ -44014,13 +44014,13 @@
         <v>0.895631366666667</v>
       </c>
       <c r="X81" t="n">
-        <v>0.94571245</v>
+        <v>0.9510693</v>
       </c>
       <c r="Y81" t="n">
         <v>27</v>
       </c>
       <c r="Z81" t="n">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82">
@@ -44094,13 +44094,13 @@
         <v>0.895539253333333</v>
       </c>
       <c r="X82" t="n">
-        <v>0.9454666</v>
+        <v>0.9510693</v>
       </c>
       <c r="Y82" t="n">
         <v>29</v>
       </c>
       <c r="Z82" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="83">
@@ -44174,13 +44174,13 @@
         <v>0.895484726666667</v>
       </c>
       <c r="X83" t="n">
-        <v>0.94534385</v>
+        <v>0.9510693</v>
       </c>
       <c r="Y83" t="n">
         <v>30</v>
       </c>
       <c r="Z83" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="84">
@@ -44254,13 +44254,13 @@
         <v>0.895424206666667</v>
       </c>
       <c r="X84" t="n">
-        <v>0.9455895</v>
+        <v>0.9510693</v>
       </c>
       <c r="Y84" t="n">
         <v>32</v>
       </c>
       <c r="Z84" t="n">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="85">
@@ -44334,13 +44334,13 @@
         <v>0.89537104</v>
       </c>
       <c r="X85" t="n">
-        <v>0.9455954</v>
+        <v>0.9513269</v>
       </c>
       <c r="Y85" t="n">
         <v>33</v>
       </c>
       <c r="Z85" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="86">
@@ -44414,13 +44414,13 @@
         <v>0.895140246666667</v>
       </c>
       <c r="X86" t="n">
-        <v>0.94412265</v>
+        <v>0.9497853</v>
       </c>
       <c r="Y86" t="n">
         <v>38</v>
       </c>
       <c r="Z86" t="n">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87">
@@ -44494,13 +44494,13 @@
         <v>0.8951178</v>
       </c>
       <c r="X87" t="n">
-        <v>0.9442508</v>
+        <v>0.9500416</v>
       </c>
       <c r="Y87" t="n">
         <v>39</v>
       </c>
       <c r="Z87" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="88">
@@ -44574,13 +44574,13 @@
         <v>0.89507036</v>
       </c>
       <c r="X88" t="n">
-        <v>0.94400075</v>
+        <v>0.9497853</v>
       </c>
       <c r="Y88" t="n">
         <v>40</v>
       </c>
       <c r="Z88" t="n">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89">
@@ -44654,13 +44654,13 @@
         <v>0.895019806666667</v>
       </c>
       <c r="X89" t="n">
-        <v>0.943751</v>
+        <v>0.9495293</v>
       </c>
       <c r="Y89" t="n">
         <v>41</v>
       </c>
       <c r="Z89" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90">
@@ -44734,13 +44734,13 @@
         <v>0.894996686666667</v>
       </c>
       <c r="X90" t="n">
-        <v>0.943751</v>
+        <v>0.9495293</v>
       </c>
       <c r="Y90" t="n">
         <v>43</v>
       </c>
       <c r="Z90" t="n">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91">
@@ -44814,13 +44814,13 @@
         <v>0.894996686666667</v>
       </c>
       <c r="X91" t="n">
-        <v>0.943751</v>
+        <v>0.9495293</v>
       </c>
       <c r="Y91" t="n">
         <v>44</v>
       </c>
       <c r="Z91" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -44988,13 +44988,13 @@
         <v>0.822428846666667</v>
       </c>
       <c r="X2" t="n">
-        <v>0.94001475</v>
+        <v>0.9419843</v>
       </c>
       <c r="Y2" t="n">
         <v>76</v>
       </c>
       <c r="Z2" t="n">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
@@ -45068,13 +45068,13 @@
         <v>0.822428846666667</v>
       </c>
       <c r="X3" t="n">
-        <v>0.94001475</v>
+        <v>0.9419843</v>
       </c>
       <c r="Y3" t="n">
         <v>77</v>
       </c>
       <c r="Z3" t="n">
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
@@ -45148,13 +45148,13 @@
         <v>0.822428846666667</v>
       </c>
       <c r="X4" t="n">
-        <v>0.94001475</v>
+        <v>0.9419843</v>
       </c>
       <c r="Y4" t="n">
         <v>78</v>
       </c>
       <c r="Z4" t="n">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
@@ -45228,13 +45228,13 @@
         <v>0.822414486666667</v>
       </c>
       <c r="X5" t="n">
-        <v>0.94001475</v>
+        <v>0.9419843</v>
       </c>
       <c r="Y5" t="n">
         <v>81</v>
       </c>
       <c r="Z5" t="n">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
@@ -45308,13 +45308,13 @@
         <v>0.82241854</v>
       </c>
       <c r="X6" t="n">
-        <v>0.94001475</v>
+        <v>0.9419843</v>
       </c>
       <c r="Y6" t="n">
         <v>79</v>
       </c>
       <c r="Z6" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
@@ -45388,13 +45388,13 @@
         <v>0.82241854</v>
       </c>
       <c r="X7" t="n">
-        <v>0.94001475</v>
+        <v>0.9419843</v>
       </c>
       <c r="Y7" t="n">
         <v>80</v>
       </c>
       <c r="Z7" t="n">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
@@ -45468,13 +45468,13 @@
         <v>0.822378833333333</v>
       </c>
       <c r="X8" t="n">
-        <v>0.9398783</v>
+        <v>0.9419184</v>
       </c>
       <c r="Y8" t="n">
         <v>85</v>
       </c>
       <c r="Z8" t="n">
-        <v>85</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
@@ -45548,13 +45548,13 @@
         <v>0.822393006666667</v>
       </c>
       <c r="X9" t="n">
-        <v>0.93982835</v>
+        <v>0.9416115</v>
       </c>
       <c r="Y9" t="n">
         <v>84</v>
       </c>
       <c r="Z9" t="n">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
@@ -45628,13 +45628,13 @@
         <v>0.822404493333333</v>
       </c>
       <c r="X10" t="n">
-        <v>0.939963</v>
+        <v>0.9419843</v>
       </c>
       <c r="Y10" t="n">
         <v>82</v>
       </c>
       <c r="Z10" t="n">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11">
@@ -45708,13 +45708,13 @@
         <v>0.822378833333333</v>
       </c>
       <c r="X11" t="n">
-        <v>0.9398783</v>
+        <v>0.9419184</v>
       </c>
       <c r="Y11" t="n">
         <v>86</v>
       </c>
       <c r="Z11" t="n">
-        <v>86</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
@@ -45788,13 +45788,13 @@
         <v>0.822356726666667</v>
       </c>
       <c r="X12" t="n">
-        <v>0.93982835</v>
+        <v>0.9416115</v>
       </c>
       <c r="Y12" t="n">
         <v>88</v>
       </c>
       <c r="Z12" t="n">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13">
@@ -45868,13 +45868,13 @@
         <v>0.822404493333333</v>
       </c>
       <c r="X13" t="n">
-        <v>0.939963</v>
+        <v>0.9419843</v>
       </c>
       <c r="Y13" t="n">
         <v>83</v>
       </c>
       <c r="Z13" t="n">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14">
@@ -45948,13 +45948,13 @@
         <v>0.822361926666667</v>
       </c>
       <c r="X14" t="n">
-        <v>0.9398783</v>
+        <v>0.9419184</v>
       </c>
       <c r="Y14" t="n">
         <v>87</v>
       </c>
       <c r="Z14" t="n">
-        <v>87</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15">
@@ -46028,13 +46028,13 @@
         <v>0.822217433333333</v>
       </c>
       <c r="X15" t="n">
-        <v>0.93982835</v>
+        <v>0.9416115</v>
       </c>
       <c r="Y15" t="n">
         <v>89</v>
       </c>
       <c r="Z15" t="n">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16">
@@ -46108,13 +46108,13 @@
         <v>0.822434966666667</v>
       </c>
       <c r="X16" t="n">
-        <v>0.939963</v>
+        <v>0.9419843</v>
       </c>
       <c r="Y16" t="n">
         <v>75</v>
       </c>
       <c r="Z16" t="n">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17">
@@ -46188,13 +46188,13 @@
         <v>0.849680253333333</v>
       </c>
       <c r="X17" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y17" t="n">
         <v>1</v>
       </c>
       <c r="Z17" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -46268,13 +46268,13 @@
         <v>0.822907853333333</v>
       </c>
       <c r="X18" t="n">
-        <v>0.93994005</v>
+        <v>0.9415457</v>
       </c>
       <c r="Y18" t="n">
         <v>63</v>
       </c>
       <c r="Z18" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
@@ -46348,13 +46348,13 @@
         <v>0.82307674</v>
       </c>
       <c r="X19" t="n">
-        <v>0.9400746</v>
+        <v>0.9419184</v>
       </c>
       <c r="Y19" t="n">
         <v>52</v>
       </c>
       <c r="Z19" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
@@ -46428,13 +46428,13 @@
         <v>0.84953364</v>
       </c>
       <c r="X20" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y20" t="n">
         <v>3</v>
       </c>
       <c r="Z20" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
@@ -46508,13 +46508,13 @@
         <v>0.8228244</v>
       </c>
       <c r="X21" t="n">
-        <v>0.93994005</v>
+        <v>0.9415457</v>
       </c>
       <c r="Y21" t="n">
         <v>64</v>
       </c>
       <c r="Z21" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22">
@@ -46588,13 +46588,13 @@
         <v>0.823115853333333</v>
       </c>
       <c r="X22" t="n">
-        <v>0.9400746</v>
+        <v>0.9419184</v>
       </c>
       <c r="Y22" t="n">
         <v>50</v>
       </c>
       <c r="Z22" t="n">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23">
@@ -46668,13 +46668,13 @@
         <v>0.84953364</v>
       </c>
       <c r="X23" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y23" t="n">
         <v>4</v>
       </c>
       <c r="Z23" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
@@ -46748,13 +46748,13 @@
         <v>0.8228244</v>
       </c>
       <c r="X24" t="n">
-        <v>0.93994005</v>
+        <v>0.9415457</v>
       </c>
       <c r="Y24" t="n">
         <v>65</v>
       </c>
       <c r="Z24" t="n">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25">
@@ -46828,13 +46828,13 @@
         <v>0.823052533333333</v>
       </c>
       <c r="X25" t="n">
-        <v>0.94004165</v>
+        <v>0.9418525</v>
       </c>
       <c r="Y25" t="n">
         <v>58</v>
       </c>
       <c r="Z25" t="n">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26">
@@ -46908,13 +46908,13 @@
         <v>0.849520146666667</v>
       </c>
       <c r="X26" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y26" t="n">
         <v>5</v>
       </c>
       <c r="Z26" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
@@ -46988,13 +46988,13 @@
         <v>0.8228244</v>
       </c>
       <c r="X27" t="n">
-        <v>0.93994005</v>
+        <v>0.9415457</v>
       </c>
       <c r="Y27" t="n">
         <v>66</v>
       </c>
       <c r="Z27" t="n">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28">
@@ -47068,13 +47068,13 @@
         <v>0.8231012</v>
       </c>
       <c r="X28" t="n">
-        <v>0.94004165</v>
+        <v>0.9418525</v>
       </c>
       <c r="Y28" t="n">
         <v>51</v>
       </c>
       <c r="Z28" t="n">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29">
@@ -47148,13 +47148,13 @@
         <v>0.849509786666667</v>
       </c>
       <c r="X29" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y29" t="n">
         <v>6</v>
       </c>
       <c r="Z29" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30">
@@ -47228,13 +47228,13 @@
         <v>0.8228244</v>
       </c>
       <c r="X30" t="n">
-        <v>0.93994005</v>
+        <v>0.9415457</v>
       </c>
       <c r="Y30" t="n">
         <v>67</v>
       </c>
       <c r="Z30" t="n">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31">
@@ -47308,13 +47308,13 @@
         <v>0.823073986666667</v>
       </c>
       <c r="X31" t="n">
-        <v>0.94004165</v>
+        <v>0.9418525</v>
       </c>
       <c r="Y31" t="n">
         <v>53</v>
       </c>
       <c r="Z31" t="n">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32">
@@ -47388,13 +47388,13 @@
         <v>0.849509786666667</v>
       </c>
       <c r="X32" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y32" t="n">
         <v>7</v>
       </c>
       <c r="Z32" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33">
@@ -47468,13 +47468,13 @@
         <v>0.8228244</v>
       </c>
       <c r="X33" t="n">
-        <v>0.93994005</v>
+        <v>0.9415457</v>
       </c>
       <c r="Y33" t="n">
         <v>68</v>
       </c>
       <c r="Z33" t="n">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34">
@@ -47548,13 +47548,13 @@
         <v>0.823073986666667</v>
       </c>
       <c r="X34" t="n">
-        <v>0.94004165</v>
+        <v>0.9418525</v>
       </c>
       <c r="Y34" t="n">
         <v>54</v>
       </c>
       <c r="Z34" t="n">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35">
@@ -47628,13 +47628,13 @@
         <v>0.849509786666667</v>
       </c>
       <c r="X35" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y35" t="n">
         <v>8</v>
       </c>
       <c r="Z35" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36">
@@ -47708,13 +47708,13 @@
         <v>0.8228244</v>
       </c>
       <c r="X36" t="n">
-        <v>0.93994005</v>
+        <v>0.9415457</v>
       </c>
       <c r="Y36" t="n">
         <v>69</v>
       </c>
       <c r="Z36" t="n">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37">
@@ -47788,13 +47788,13 @@
         <v>0.823049313333333</v>
       </c>
       <c r="X37" t="n">
-        <v>0.94004165</v>
+        <v>0.9418525</v>
       </c>
       <c r="Y37" t="n">
         <v>59</v>
       </c>
       <c r="Z37" t="n">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38">
@@ -47868,13 +47868,13 @@
         <v>0.84946558</v>
       </c>
       <c r="X38" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y38" t="n">
         <v>11</v>
       </c>
       <c r="Z38" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39">
@@ -47948,13 +47948,13 @@
         <v>0.82281894</v>
       </c>
       <c r="X39" t="n">
-        <v>0.93994005</v>
+        <v>0.9415457</v>
       </c>
       <c r="Y39" t="n">
         <v>70</v>
       </c>
       <c r="Z39" t="n">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40">
@@ -48028,13 +48028,13 @@
         <v>0.823053366666667</v>
       </c>
       <c r="X40" t="n">
-        <v>0.94004165</v>
+        <v>0.9418525</v>
       </c>
       <c r="Y40" t="n">
         <v>55</v>
       </c>
       <c r="Z40" t="n">
-        <v>57</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41">
@@ -48108,13 +48108,13 @@
         <v>0.84946558</v>
       </c>
       <c r="X41" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y41" t="n">
         <v>12</v>
       </c>
       <c r="Z41" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42">
@@ -48188,13 +48188,13 @@
         <v>0.82281894</v>
       </c>
       <c r="X42" t="n">
-        <v>0.93994005</v>
+        <v>0.9415457</v>
       </c>
       <c r="Y42" t="n">
         <v>71</v>
       </c>
       <c r="Z42" t="n">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43">
@@ -48268,13 +48268,13 @@
         <v>0.823053366666667</v>
       </c>
       <c r="X43" t="n">
-        <v>0.94004165</v>
+        <v>0.9418525</v>
       </c>
       <c r="Y43" t="n">
         <v>56</v>
       </c>
       <c r="Z43" t="n">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44">
@@ -48348,13 +48348,13 @@
         <v>0.849450813333333</v>
       </c>
       <c r="X44" t="n">
-        <v>0.94036605</v>
+        <v>0.942027</v>
       </c>
       <c r="Y44" t="n">
         <v>16</v>
       </c>
       <c r="Z44" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45">
@@ -48428,13 +48428,13 @@
         <v>0.822705213333333</v>
       </c>
       <c r="X45" t="n">
-        <v>0.93994005</v>
+        <v>0.9415457</v>
       </c>
       <c r="Y45" t="n">
         <v>72</v>
       </c>
       <c r="Z45" t="n">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46">
@@ -48508,13 +48508,13 @@
         <v>0.823053366666667</v>
       </c>
       <c r="X46" t="n">
-        <v>0.94004165</v>
+        <v>0.9418525</v>
       </c>
       <c r="Y46" t="n">
         <v>57</v>
       </c>
       <c r="Z46" t="n">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47">
@@ -48588,13 +48588,13 @@
         <v>0.84945986</v>
       </c>
       <c r="X47" t="n">
-        <v>0.94033305</v>
+        <v>0.941961</v>
       </c>
       <c r="Y47" t="n">
         <v>13</v>
       </c>
       <c r="Z47" t="n">
-        <v>39</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48">
@@ -48668,13 +48668,13 @@
         <v>0.82262664</v>
       </c>
       <c r="X48" t="n">
-        <v>0.93994005</v>
+        <v>0.9415457</v>
       </c>
       <c r="Y48" t="n">
         <v>73</v>
       </c>
       <c r="Z48" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49">
@@ -48748,13 +48748,13 @@
         <v>0.823029153333333</v>
       </c>
       <c r="X49" t="n">
-        <v>0.93998985</v>
+        <v>0.9418525</v>
       </c>
       <c r="Y49" t="n">
         <v>61</v>
       </c>
       <c r="Z49" t="n">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50">
@@ -48828,13 +48828,13 @@
         <v>0.84945986</v>
       </c>
       <c r="X50" t="n">
-        <v>0.94033305</v>
+        <v>0.941961</v>
       </c>
       <c r="Y50" t="n">
         <v>14</v>
       </c>
       <c r="Z50" t="n">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51">
@@ -48908,13 +48908,13 @@
         <v>0.82262664</v>
       </c>
       <c r="X51" t="n">
-        <v>0.93994005</v>
+        <v>0.9415457</v>
       </c>
       <c r="Y51" t="n">
         <v>74</v>
       </c>
       <c r="Z51" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52">
@@ -48988,13 +48988,13 @@
         <v>0.823029153333333</v>
       </c>
       <c r="X52" t="n">
-        <v>0.93998985</v>
+        <v>0.9418525</v>
       </c>
       <c r="Y52" t="n">
         <v>62</v>
       </c>
       <c r="Z52" t="n">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53">
@@ -49068,13 +49068,13 @@
         <v>0.84945986</v>
       </c>
       <c r="X53" t="n">
-        <v>0.94033305</v>
+        <v>0.941961</v>
       </c>
       <c r="Y53" t="n">
         <v>15</v>
       </c>
       <c r="Z53" t="n">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54">
@@ -49148,13 +49148,13 @@
         <v>0.82181536</v>
       </c>
       <c r="X54" t="n">
-        <v>0.93994005</v>
+        <v>0.9415457</v>
       </c>
       <c r="Y54" t="n">
         <v>90</v>
       </c>
       <c r="Z54" t="n">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55">
@@ -49228,13 +49228,13 @@
         <v>0.823046373333333</v>
       </c>
       <c r="X55" t="n">
-        <v>0.94004165</v>
+        <v>0.9418525</v>
       </c>
       <c r="Y55" t="n">
         <v>60</v>
       </c>
       <c r="Z55" t="n">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56">
@@ -49308,13 +49308,13 @@
         <v>0.8490355</v>
       </c>
       <c r="X56" t="n">
-        <v>0.94024665</v>
+        <v>0.9421589</v>
       </c>
       <c r="Y56" t="n">
         <v>43</v>
       </c>
       <c r="Z56" t="n">
-        <v>49</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -49388,13 +49388,13 @@
         <v>0.849040226666667</v>
       </c>
       <c r="X57" t="n">
-        <v>0.94039115</v>
+        <v>0.9421589</v>
       </c>
       <c r="Y57" t="n">
         <v>42</v>
       </c>
       <c r="Z57" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58">
@@ -49468,13 +49468,13 @@
         <v>0.848959593333333</v>
       </c>
       <c r="X58" t="n">
-        <v>0.94028755</v>
+        <v>0.9421589</v>
       </c>
       <c r="Y58" t="n">
         <v>46</v>
       </c>
       <c r="Z58" t="n">
-        <v>42</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59">
@@ -49548,13 +49548,13 @@
         <v>0.848911093333333</v>
       </c>
       <c r="X59" t="n">
-        <v>0.94028755</v>
+        <v>0.9421589</v>
       </c>
       <c r="Y59" t="n">
         <v>48</v>
       </c>
       <c r="Z59" t="n">
-        <v>43</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60">
@@ -49628,13 +49628,13 @@
         <v>0.84887514</v>
       </c>
       <c r="X60" t="n">
-        <v>0.94028755</v>
+        <v>0.9421589</v>
       </c>
       <c r="Y60" t="n">
         <v>49</v>
       </c>
       <c r="Z60" t="n">
-        <v>44</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61">
@@ -49708,13 +49708,13 @@
         <v>0.849508553333333</v>
       </c>
       <c r="X61" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y61" t="n">
         <v>9</v>
       </c>
       <c r="Z61" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62">
@@ -49788,13 +49788,13 @@
         <v>0.849399813333333</v>
       </c>
       <c r="X62" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y62" t="n">
         <v>18</v>
       </c>
       <c r="Z62" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63">
@@ -49868,13 +49868,13 @@
         <v>0.849393526666667</v>
       </c>
       <c r="X63" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y63" t="n">
         <v>20</v>
       </c>
       <c r="Z63" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64">
@@ -49948,13 +49948,13 @@
         <v>0.849358226666667</v>
       </c>
       <c r="X64" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y64" t="n">
         <v>23</v>
       </c>
       <c r="Z64" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65">
@@ -50028,13 +50028,13 @@
         <v>0.849327693333333</v>
       </c>
       <c r="X65" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y65" t="n">
         <v>25</v>
       </c>
       <c r="Z65" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66">
@@ -50108,13 +50108,13 @@
         <v>0.849316893333333</v>
       </c>
       <c r="X66" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y66" t="n">
         <v>26</v>
       </c>
       <c r="Z66" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67">
@@ -50188,13 +50188,13 @@
         <v>0.849312813333333</v>
       </c>
       <c r="X67" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y67" t="n">
         <v>27</v>
       </c>
       <c r="Z67" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68">
@@ -50268,13 +50268,13 @@
         <v>0.849206433333333</v>
       </c>
       <c r="X68" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y68" t="n">
         <v>34</v>
       </c>
       <c r="Z68" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69">
@@ -50348,13 +50348,13 @@
         <v>0.849199706666667</v>
       </c>
       <c r="X69" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y69" t="n">
         <v>35</v>
       </c>
       <c r="Z69" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70">
@@ -50428,13 +50428,13 @@
         <v>0.849197053333333</v>
       </c>
       <c r="X70" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y70" t="n">
         <v>36</v>
       </c>
       <c r="Z70" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71">
@@ -50508,13 +50508,13 @@
         <v>0.849164513333333</v>
       </c>
       <c r="X71" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y71" t="n">
         <v>39</v>
       </c>
       <c r="Z71" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72">
@@ -50588,13 +50588,13 @@
         <v>0.84916926</v>
       </c>
       <c r="X72" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y72" t="n">
         <v>37</v>
       </c>
       <c r="Z72" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73">
@@ -50668,13 +50668,13 @@
         <v>0.84916474</v>
       </c>
       <c r="X73" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y73" t="n">
         <v>38</v>
       </c>
       <c r="Z73" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74">
@@ -50748,13 +50748,13 @@
         <v>0.8490476</v>
       </c>
       <c r="X74" t="n">
-        <v>0.94027965</v>
+        <v>0.9422249</v>
       </c>
       <c r="Y74" t="n">
         <v>40</v>
       </c>
       <c r="Z74" t="n">
-        <v>48</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -50828,13 +50828,13 @@
         <v>0.84904216</v>
       </c>
       <c r="X75" t="n">
-        <v>0.94039115</v>
+        <v>0.9421589</v>
       </c>
       <c r="Y75" t="n">
         <v>41</v>
       </c>
       <c r="Z75" t="n">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76">
@@ -50908,13 +50908,13 @@
         <v>0.848998093333333</v>
       </c>
       <c r="X76" t="n">
-        <v>0.94028755</v>
+        <v>0.9421589</v>
       </c>
       <c r="Y76" t="n">
         <v>44</v>
       </c>
       <c r="Z76" t="n">
-        <v>45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77">
@@ -50988,13 +50988,13 @@
         <v>0.848971766666667</v>
       </c>
       <c r="X77" t="n">
-        <v>0.94028755</v>
+        <v>0.9421589</v>
       </c>
       <c r="Y77" t="n">
         <v>45</v>
       </c>
       <c r="Z77" t="n">
-        <v>46</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78">
@@ -51068,13 +51068,13 @@
         <v>0.848919366666667</v>
       </c>
       <c r="X78" t="n">
-        <v>0.94028755</v>
+        <v>0.9421589</v>
       </c>
       <c r="Y78" t="n">
         <v>47</v>
       </c>
       <c r="Z78" t="n">
-        <v>47</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79">
@@ -51148,13 +51148,13 @@
         <v>0.849577933333333</v>
       </c>
       <c r="X79" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y79" t="n">
         <v>2</v>
       </c>
       <c r="Z79" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80">
@@ -51228,13 +51228,13 @@
         <v>0.849496066666667</v>
       </c>
       <c r="X80" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y80" t="n">
         <v>10</v>
       </c>
       <c r="Z80" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81">
@@ -51308,13 +51308,13 @@
         <v>0.849432213333333</v>
       </c>
       <c r="X81" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y81" t="n">
         <v>17</v>
       </c>
       <c r="Z81" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82">
@@ -51388,13 +51388,13 @@
         <v>0.849395186666667</v>
       </c>
       <c r="X82" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y82" t="n">
         <v>19</v>
       </c>
       <c r="Z82" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="83">
@@ -51468,13 +51468,13 @@
         <v>0.84937336</v>
       </c>
       <c r="X83" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y83" t="n">
         <v>22</v>
       </c>
       <c r="Z83" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="84">
@@ -51548,13 +51548,13 @@
         <v>0.849374633333333</v>
       </c>
       <c r="X84" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y84" t="n">
         <v>21</v>
       </c>
       <c r="Z84" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="85">
@@ -51628,13 +51628,13 @@
         <v>0.849356793333333</v>
       </c>
       <c r="X85" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y85" t="n">
         <v>24</v>
       </c>
       <c r="Z85" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="86">
@@ -51708,13 +51708,13 @@
         <v>0.849241266666667</v>
       </c>
       <c r="X86" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y86" t="n">
         <v>28</v>
       </c>
       <c r="Z86" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87">
@@ -51788,13 +51788,13 @@
         <v>0.849240286666667</v>
       </c>
       <c r="X87" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y87" t="n">
         <v>29</v>
       </c>
       <c r="Z87" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="88">
@@ -51868,13 +51868,13 @@
         <v>0.849216993333333</v>
       </c>
       <c r="X88" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y88" t="n">
         <v>31</v>
       </c>
       <c r="Z88" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="89">
@@ -51948,13 +51948,13 @@
         <v>0.849221773333333</v>
       </c>
       <c r="X89" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y89" t="n">
         <v>30</v>
       </c>
       <c r="Z89" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="90">
@@ -52028,13 +52028,13 @@
         <v>0.849215046666667</v>
       </c>
       <c r="X90" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y90" t="n">
         <v>32</v>
       </c>
       <c r="Z90" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="91">
@@ -52108,13 +52108,13 @@
         <v>0.849215046666667</v>
       </c>
       <c r="X91" t="n">
-        <v>0.94039905</v>
+        <v>0.942093</v>
       </c>
       <c r="Y91" t="n">
         <v>33</v>
       </c>
       <c r="Z91" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
